--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Natural gas consumption [MMcf/yr]</t>
-  </si>
-  <si>
-    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,301 +498,268 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.0404635115877897</v>
+        <v>-0.05487660350641402</v>
       </c>
       <c r="E4">
-        <v>-0.07889747243681094</v>
+        <v>-0.02220258481033924</v>
       </c>
       <c r="F4">
-        <v>-0.07028125703142579</v>
+        <v>-0.02655476221904888</v>
       </c>
       <c r="H4">
-        <v>-0.0767014175354384</v>
+        <v>-0.01617875271501086</v>
       </c>
       <c r="I4">
-        <v>-0.08339008475211883</v>
+        <v>-0.02424720098880395</v>
       </c>
       <c r="J4">
-        <v>-0.07455936398409961</v>
-      </c>
-      <c r="K4">
-        <v>0.01510761162025444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-0.05186680484024906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.02181804545113629</v>
+        <v>-0.0378813675254701</v>
       </c>
       <c r="E5">
-        <v>0.1343358583964599</v>
+        <v>0.00240375361501446</v>
       </c>
       <c r="F5">
-        <v>0.1323993099827496</v>
+        <v>-0.00284813939255757</v>
       </c>
       <c r="H5">
-        <v>0.1364779119477987</v>
+        <v>-0.03184649538598154</v>
       </c>
       <c r="I5">
-        <v>0.08714767869196731</v>
+        <v>0.0001651206604826419</v>
       </c>
       <c r="J5">
-        <v>0.1357848946223656</v>
-      </c>
-      <c r="K5">
-        <v>0.02389325268117409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.04313613676180762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>-0.005848646216155405</v>
+        <v>0.03099045996183985</v>
       </c>
       <c r="E6">
-        <v>-0.05899947498687468</v>
+        <v>-0.02410579242316969</v>
       </c>
       <c r="F6">
-        <v>-0.06596114902872573</v>
+        <v>-0.02659844239376957</v>
       </c>
       <c r="H6">
-        <v>-0.06198154953873847</v>
+        <v>-0.05781642326569306</v>
       </c>
       <c r="I6">
-        <v>-0.06938873471836797</v>
+        <v>-0.02494521978087913</v>
       </c>
       <c r="J6">
-        <v>-0.06317257931448288</v>
-      </c>
-      <c r="K6">
-        <v>0.2350164610327297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.01808148117083027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.04632191328765314</v>
+      </c>
+      <c r="E7">
+        <v>0.8729432997731991</v>
+      </c>
+      <c r="F7">
+        <v>0.8817736070944283</v>
+      </c>
+      <c r="H7">
+        <v>0.9999064956259824</v>
+      </c>
+      <c r="I7">
+        <v>0.8722964491857966</v>
+      </c>
+      <c r="J7">
+        <v>0.04654640618776307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>0.08461711542788571</v>
-      </c>
-      <c r="E7">
-        <v>0.8631200780019502</v>
-      </c>
-      <c r="F7">
-        <v>0.8734613365334135</v>
-      </c>
-      <c r="H7">
-        <v>0.8663766594164855</v>
-      </c>
-      <c r="I7">
-        <v>0.9999099977499439</v>
-      </c>
-      <c r="J7">
-        <v>0.8632430810770271</v>
-      </c>
-      <c r="K7">
-        <v>-0.1671342365090072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="C8">
+        <v>0.97725856503426</v>
+      </c>
+      <c r="E8">
+        <v>0.01101998007992032</v>
+      </c>
+      <c r="F8">
+        <v>0.007593534374137497</v>
+      </c>
+      <c r="H8">
+        <v>-0.00598811995247981</v>
+      </c>
+      <c r="I8">
+        <v>0.009724550898203592</v>
+      </c>
+      <c r="J8">
+        <v>-0.02135822448314467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.007447709790839163</v>
+      </c>
+      <c r="E9">
+        <v>0.02162802251209005</v>
+      </c>
+      <c r="F9">
+        <v>0.01877556310225241</v>
+      </c>
+      <c r="H9">
+        <v>0.005200436801747207</v>
+      </c>
+      <c r="I9">
+        <v>0.02101045204180817</v>
+      </c>
+      <c r="J9">
+        <v>-0.05024317339153084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>0.9738648466211656</v>
-      </c>
-      <c r="E8">
-        <v>0.03920348008700219</v>
-      </c>
-      <c r="F8">
-        <v>0.04167554188854722</v>
-      </c>
-      <c r="H8">
-        <v>0.04057751443786095</v>
-      </c>
-      <c r="I8">
-        <v>0.0428020700517513</v>
-      </c>
-      <c r="J8">
-        <v>0.04300307507687693</v>
-      </c>
-      <c r="K8">
-        <v>0.0824534401608365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>-0.01316282907072677</v>
-      </c>
-      <c r="E9">
-        <v>-0.004995124878121954</v>
-      </c>
-      <c r="F9">
-        <v>-0.004845121128028201</v>
-      </c>
-      <c r="H9">
-        <v>-0.005329633240831021</v>
-      </c>
-      <c r="I9">
-        <v>0.02213005325133129</v>
-      </c>
-      <c r="J9">
-        <v>-0.005701642541063528</v>
-      </c>
-      <c r="K9">
-        <v>-0.01798239400821824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>-0.07582916731666926</v>
+      </c>
+      <c r="E10">
+        <v>-0.03130150120600483</v>
+      </c>
+      <c r="F10">
+        <v>-0.02986485545942184</v>
+      </c>
+      <c r="H10">
+        <v>-0.01797952791811167</v>
+      </c>
+      <c r="I10">
+        <v>-0.02989346357385429</v>
+      </c>
+      <c r="J10">
+        <v>0.01959309664575326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>0.1096857421435536</v>
-      </c>
-      <c r="E10">
-        <v>-0.02114002850071252</v>
-      </c>
-      <c r="F10">
-        <v>-0.01516237905947649</v>
-      </c>
-      <c r="H10">
-        <v>-0.01969699242481062</v>
-      </c>
-      <c r="I10">
-        <v>-0.03204680117002925</v>
-      </c>
-      <c r="J10">
-        <v>-0.01775744393609841</v>
-      </c>
-      <c r="K10">
-        <v>0.07319442026724328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C11">
-        <v>0.05156678916972925</v>
+        <v>0.05106980427921711</v>
       </c>
       <c r="E11">
-        <v>0.1040351008775219</v>
+        <v>-0.06676682706730826</v>
       </c>
       <c r="F11">
-        <v>0.0976689417235431</v>
+        <v>-0.06948910995643984</v>
       </c>
       <c r="H11">
-        <v>0.1030765769144229</v>
+        <v>-0.05326523706094825</v>
       </c>
       <c r="I11">
-        <v>0.1248826220655516</v>
+        <v>-0.06519837279349118</v>
       </c>
       <c r="J11">
-        <v>0.1039225980649516</v>
-      </c>
-      <c r="K11">
-        <v>-0.08987070881161889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.03231384765188664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.04514962874071852</v>
+        <v>0.1043678734714939</v>
       </c>
       <c r="E12">
-        <v>0.3997599939998501</v>
+        <v>0.5147194028776115</v>
       </c>
       <c r="F12">
-        <v>0.3808070201755045</v>
+        <v>0.4986034344137377</v>
       </c>
       <c r="H12">
-        <v>0.3954653866346658</v>
+        <v>0.04393918375673502</v>
       </c>
       <c r="I12">
-        <v>-0.09050776269406736</v>
+        <v>0.5173999255997023</v>
       </c>
       <c r="J12">
-        <v>0.401225530638266</v>
-      </c>
-      <c r="K12">
-        <v>-0.02301401339132712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>-0.06635186745078865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.1700952523813096</v>
+        <v>-0.1727335869343477</v>
       </c>
       <c r="E13">
-        <v>0.012028800720018</v>
+        <v>-0.02554877419509678</v>
       </c>
       <c r="F13">
-        <v>0.02430060751518788</v>
+        <v>-0.0258624074496298</v>
       </c>
       <c r="H13">
-        <v>0.01491787294682367</v>
+        <v>-0.04002227208908835</v>
       </c>
       <c r="I13">
-        <v>0.06003150078751969</v>
+        <v>-0.02516909267637071</v>
       </c>
       <c r="J13">
-        <v>0.01811745293632341</v>
-      </c>
-      <c r="K13">
-        <v>0.004526731975201873</v>
+        <v>0.03358693104030525</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -67,7 +67,10 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
+    <t>Cane lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Lipid retention [%]</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,22 +518,22 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>-0.05487660350641402</v>
+        <v>0.03113627840696018</v>
       </c>
       <c r="E4">
-        <v>-0.02220258481033924</v>
+        <v>-0.06940223505587641</v>
       </c>
       <c r="F4">
-        <v>-0.02655476221904888</v>
+        <v>-0.06811220280507013</v>
       </c>
       <c r="H4">
-        <v>-0.01617875271501086</v>
+        <v>-0.08925223130578265</v>
       </c>
       <c r="I4">
-        <v>-0.02424720098880395</v>
+        <v>-0.06865521638040951</v>
       </c>
       <c r="J4">
-        <v>-0.05186680484024906</v>
+        <v>-0.1254357218678178</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -539,22 +542,22 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>-0.0378813675254701</v>
+        <v>-0.02225605640141004</v>
       </c>
       <c r="E5">
-        <v>0.00240375361501446</v>
+        <v>-0.02963924098102453</v>
       </c>
       <c r="F5">
-        <v>-0.00284813939255757</v>
+        <v>-0.02480012000300008</v>
       </c>
       <c r="H5">
-        <v>-0.03184649538598154</v>
+        <v>-0.05720693017325434</v>
       </c>
       <c r="I5">
-        <v>0.0001651206604826419</v>
+        <v>-0.02527113177829446</v>
       </c>
       <c r="J5">
-        <v>0.04313613676180762</v>
+        <v>-0.002828491536175664</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -563,22 +566,22 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.03099045996183985</v>
+        <v>0.1048601215030376</v>
       </c>
       <c r="E6">
-        <v>-0.02410579242316969</v>
+        <v>0.03206780169504238</v>
       </c>
       <c r="F6">
-        <v>-0.02659844239376957</v>
+        <v>0.03545788644716118</v>
       </c>
       <c r="H6">
-        <v>-0.05781642326569306</v>
+        <v>0.04761869046726169</v>
       </c>
       <c r="I6">
-        <v>-0.02494521978087913</v>
+        <v>0.0334118352958824</v>
       </c>
       <c r="J6">
-        <v>0.01808148117083027</v>
+        <v>0.0733434607697412</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -587,150 +590,150 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.04632191328765314</v>
+        <v>0.09874746868671719</v>
       </c>
       <c r="E7">
-        <v>0.8729432997731991</v>
+        <v>0.1053446336158404</v>
       </c>
       <c r="F7">
-        <v>0.8817736070944283</v>
+        <v>0.1082877071926798</v>
       </c>
       <c r="H7">
-        <v>0.9999064956259824</v>
+        <v>0.1276471911797795</v>
       </c>
       <c r="I7">
-        <v>0.8722964491857966</v>
+        <v>0.1064921623040576</v>
       </c>
       <c r="J7">
-        <v>0.04654640618776307</v>
+        <v>0.006431254495516655</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.97725856503426</v>
+        <v>0.09971349283732095</v>
       </c>
       <c r="E8">
-        <v>0.01101998007992032</v>
+        <v>0.8791959798994977</v>
       </c>
       <c r="F8">
-        <v>0.007593534374137497</v>
+        <v>0.8827705692642317</v>
       </c>
       <c r="H8">
-        <v>-0.00598811995247981</v>
+        <v>0.9998799969999251</v>
       </c>
       <c r="I8">
-        <v>0.009724550898203592</v>
+        <v>0.8766714167854198</v>
       </c>
       <c r="J8">
-        <v>-0.02135822448314467</v>
+        <v>-0.00787926209891693</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.007447709790839163</v>
+        <v>0.975417385434636</v>
       </c>
       <c r="E9">
-        <v>0.02162802251209005</v>
+        <v>0.06038850971274282</v>
       </c>
       <c r="F9">
-        <v>0.01877556310225241</v>
+        <v>0.05882847071176781</v>
       </c>
       <c r="H9">
-        <v>0.005200436801747207</v>
+        <v>0.05285382134553365</v>
       </c>
       <c r="I9">
-        <v>0.02101045204180817</v>
+        <v>0.05938948473711844</v>
       </c>
       <c r="J9">
-        <v>-0.05024317339153084</v>
+        <v>0.07424827795611465</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.07582916731666926</v>
+        <v>-0.001950048751218781</v>
       </c>
       <c r="E10">
-        <v>-0.03130150120600483</v>
+        <v>-0.0704132603315083</v>
       </c>
       <c r="F10">
-        <v>-0.02986485545942184</v>
+        <v>-0.06712517812945325</v>
       </c>
       <c r="H10">
-        <v>-0.01797952791811167</v>
+        <v>-0.1141258531463287</v>
       </c>
       <c r="I10">
-        <v>-0.02989346357385429</v>
+        <v>-0.06635715892897323</v>
       </c>
       <c r="J10">
-        <v>0.01959309664575326</v>
+        <v>0.01920523245173068</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.05106980427921711</v>
+        <v>0.05603990099752495</v>
       </c>
       <c r="E11">
-        <v>-0.06676682706730826</v>
+        <v>0.08673516837920948</v>
       </c>
       <c r="F11">
-        <v>-0.06948910995643984</v>
+        <v>0.09339833495837396</v>
       </c>
       <c r="H11">
-        <v>-0.05326523706094825</v>
+        <v>0.09026775669391734</v>
       </c>
       <c r="I11">
-        <v>-0.06519837279349118</v>
+        <v>0.08983724593114829</v>
       </c>
       <c r="J11">
-        <v>0.03231384765188664</v>
+        <v>0.03014406709296176</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1043678734714939</v>
+        <v>-0.01670741768544214</v>
       </c>
       <c r="E12">
-        <v>0.5147194028776115</v>
+        <v>-0.04650116252906323</v>
       </c>
       <c r="F12">
-        <v>0.4986034344137377</v>
+        <v>-0.05130128253206331</v>
       </c>
       <c r="H12">
-        <v>0.04393918375673502</v>
+        <v>-0.03214730368259207</v>
       </c>
       <c r="I12">
-        <v>0.5173999255997023</v>
+        <v>-0.0454646366159154</v>
       </c>
       <c r="J12">
-        <v>-0.06635186745078865</v>
+        <v>-0.09153508789909169</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -739,29 +742,53 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.1727335869343477</v>
+        <v>0.1147723693092327</v>
       </c>
       <c r="E13">
-        <v>-0.02554877419509678</v>
+        <v>0.5162679066976675</v>
       </c>
       <c r="F13">
-        <v>-0.0258624074496298</v>
+        <v>0.509774244356109</v>
       </c>
       <c r="H13">
-        <v>-0.04002227208908835</v>
+        <v>0.06952073801845048</v>
       </c>
       <c r="I13">
-        <v>-0.02516909267637071</v>
+        <v>0.522283057076427</v>
       </c>
       <c r="J13">
-        <v>0.03358693104030525</v>
+        <v>-0.03123419924205015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>-0.1444821120528013</v>
+      </c>
+      <c r="E14">
+        <v>0.0342593564839121</v>
+      </c>
+      <c r="F14">
+        <v>0.03981699542488562</v>
+      </c>
+      <c r="H14">
+        <v>0.07036225905647642</v>
+      </c>
+      <c r="I14">
+        <v>0.03417235430885773</v>
+      </c>
+      <c r="J14">
+        <v>-0.1060271681412055</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Element</t>
   </si>
@@ -28,16 +28,16 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Ethanol production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Electricity production [MMWhr/yr]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [MMcf/yr]</t>
+    <t>Biodiesel production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
+    <t>MFPP derivative [USD/ton]</t>
+  </si>
+  <si>
+    <t>Biodiesel production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production derivative [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption derivative [cf/ton]</t>
+  </si>
+  <si>
+    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -452,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +490,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,292 +525,310 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.03113627840696018</v>
+        <v>0.01703418503418503</v>
       </c>
       <c r="E4">
-        <v>-0.06940223505587641</v>
+        <v>-0.04515255315255316</v>
       </c>
       <c r="F4">
-        <v>-0.06811220280507013</v>
+        <v>0.04916434916434917</v>
       </c>
       <c r="H4">
-        <v>-0.08925223130578265</v>
+        <v>-0.02564550164550165</v>
       </c>
       <c r="I4">
-        <v>-0.06865521638040951</v>
+        <v>-0.0415929295929296</v>
       </c>
       <c r="J4">
-        <v>-0.1254357218678178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-0.04544988642590527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>-0.02225605640141004</v>
+        <v>0.003915063915063915</v>
       </c>
       <c r="E5">
-        <v>-0.02963924098102453</v>
+        <v>-0.01536836736836737</v>
       </c>
       <c r="F5">
-        <v>-0.02480012000300008</v>
+        <v>0.03894179094179095</v>
       </c>
       <c r="H5">
-        <v>-0.05720693017325434</v>
+        <v>0.0533010413010413</v>
       </c>
       <c r="I5">
-        <v>-0.02527113177829446</v>
+        <v>0.02059155259155259</v>
       </c>
       <c r="J5">
-        <v>-0.002828491536175664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.01232956395853956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.1048601215030376</v>
+        <v>0.005794613794613795</v>
       </c>
       <c r="E6">
-        <v>0.03206780169504238</v>
+        <v>0.0284010524010524</v>
       </c>
       <c r="F6">
-        <v>0.03545788644716118</v>
+        <v>-0.041999141999142</v>
       </c>
       <c r="H6">
-        <v>0.04761869046726169</v>
+        <v>0.03944796344796345</v>
       </c>
       <c r="I6">
-        <v>0.0334118352958824</v>
+        <v>0.06424772824772824</v>
       </c>
       <c r="J6">
-        <v>0.0733434607697412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.00914041195617688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>0.09874746868671719</v>
+        <v>-0.06184431784431785</v>
       </c>
       <c r="E7">
-        <v>0.1053446336158404</v>
+        <v>-0.01645643245643246</v>
       </c>
       <c r="F7">
-        <v>0.1082877071926798</v>
+        <v>0.001498381498381498</v>
       </c>
       <c r="H7">
-        <v>0.1276471911797795</v>
+        <v>-0.04457226857226858</v>
       </c>
       <c r="I7">
-        <v>0.1064921623040576</v>
+        <v>-0.04071701271701272</v>
       </c>
       <c r="J7">
-        <v>0.006431254495516655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.0145226861504257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.03375536175536176</v>
+      </c>
+      <c r="E8">
+        <v>0.3042718722718722</v>
+      </c>
+      <c r="F8">
+        <v>-0.04815541215541216</v>
+      </c>
+      <c r="H8">
+        <v>0.9998983118983119</v>
+      </c>
+      <c r="I8">
+        <v>0.8663863223863224</v>
+      </c>
+      <c r="J8">
+        <v>0.002054158743204522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.9771141411141413</v>
+      </c>
+      <c r="E9">
+        <v>-0.03764979764979765</v>
+      </c>
+      <c r="F9">
+        <v>0.03734654534654535</v>
+      </c>
+      <c r="H9">
+        <v>-0.01572332772332772</v>
+      </c>
+      <c r="I9">
+        <v>-0.01252329652329653</v>
+      </c>
+      <c r="J9">
+        <v>0.01480638943104227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>-0.004906156906156907</v>
+      </c>
+      <c r="E10">
+        <v>0.0263032703032703</v>
+      </c>
+      <c r="F10">
+        <v>-0.02654347454347454</v>
+      </c>
+      <c r="H10">
+        <v>0.03065299865299866</v>
+      </c>
+      <c r="I10">
+        <v>0.04376230376230376</v>
+      </c>
+      <c r="J10">
+        <v>-0.004882088641873258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0.09971349283732095</v>
-      </c>
-      <c r="E8">
-        <v>0.8791959798994977</v>
-      </c>
-      <c r="F8">
-        <v>0.8827705692642317</v>
-      </c>
-      <c r="H8">
-        <v>0.9998799969999251</v>
-      </c>
-      <c r="I8">
-        <v>0.8766714167854198</v>
-      </c>
-      <c r="J8">
-        <v>-0.00787926209891693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>-0.03505976305976306</v>
+      </c>
+      <c r="E11">
+        <v>0.02495143295143296</v>
+      </c>
+      <c r="F11">
+        <v>-0.03518735918735919</v>
+      </c>
+      <c r="H11">
+        <v>-0.04294909894909895</v>
+      </c>
+      <c r="I11">
+        <v>-0.05291790491790493</v>
+      </c>
+      <c r="J11">
+        <v>0.001409299409014374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>0.975417385434636</v>
-      </c>
-      <c r="E9">
-        <v>0.06038850971274282</v>
-      </c>
-      <c r="F9">
-        <v>0.05882847071176781</v>
-      </c>
-      <c r="H9">
-        <v>0.05285382134553365</v>
-      </c>
-      <c r="I9">
-        <v>0.05938948473711844</v>
-      </c>
-      <c r="J9">
-        <v>0.07424827795611465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>-0.001950048751218781</v>
-      </c>
-      <c r="E10">
-        <v>-0.0704132603315083</v>
-      </c>
-      <c r="F10">
-        <v>-0.06712517812945325</v>
-      </c>
-      <c r="H10">
-        <v>-0.1141258531463287</v>
-      </c>
-      <c r="I10">
-        <v>-0.06635715892897323</v>
-      </c>
-      <c r="J10">
-        <v>0.01920523245173068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>0.05603990099752495</v>
-      </c>
-      <c r="E11">
-        <v>0.08673516837920948</v>
-      </c>
-      <c r="F11">
-        <v>0.09339833495837396</v>
-      </c>
-      <c r="H11">
-        <v>0.09026775669391734</v>
-      </c>
-      <c r="I11">
-        <v>0.08983724593114829</v>
-      </c>
-      <c r="J11">
-        <v>0.03014406709296176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>-0.01670741768544214</v>
+        <v>0.05967187167187168</v>
       </c>
       <c r="E12">
-        <v>-0.04650116252906323</v>
+        <v>-0.03037015837015837</v>
       </c>
       <c r="F12">
-        <v>-0.05130128253206331</v>
+        <v>-0.0545019545019545</v>
       </c>
       <c r="H12">
-        <v>-0.03214730368259207</v>
+        <v>-0.01360861360861361</v>
       </c>
       <c r="I12">
-        <v>-0.0454646366159154</v>
+        <v>-0.02510431310431311</v>
       </c>
       <c r="J12">
-        <v>-0.09153508789909169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.04149385649882144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>0.1147723693092327</v>
+        <v>0.06467576867576869</v>
       </c>
       <c r="E13">
-        <v>0.5162679066976675</v>
+        <v>0.3765607605607606</v>
       </c>
       <c r="F13">
-        <v>0.509774244356109</v>
+        <v>-0.5490006090006091</v>
       </c>
       <c r="H13">
-        <v>0.06952073801845048</v>
+        <v>-0.01767674967674968</v>
       </c>
       <c r="I13">
-        <v>0.522283057076427</v>
+        <v>0.4709067749067749</v>
       </c>
       <c r="J13">
-        <v>-0.03123419924205015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.01663582765111195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.1444821120528013</v>
+        <v>-0.1912373752373752</v>
       </c>
       <c r="E14">
-        <v>0.0342593564839121</v>
+        <v>0.01634711234711235</v>
       </c>
       <c r="F14">
-        <v>0.03981699542488562</v>
+        <v>-0.008022836022836023</v>
       </c>
       <c r="H14">
-        <v>0.07036225905647642</v>
+        <v>-0.02407252807252807</v>
       </c>
       <c r="I14">
-        <v>0.03417235430885773</v>
+        <v>-0.02643480243480243</v>
       </c>
       <c r="J14">
-        <v>-0.1060271681412055</v>
+        <v>-0.0306325206657704</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -560,22 +560,22 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.01703418503418503</v>
+        <v>0.04039603960396039</v>
       </c>
       <c r="E4">
-        <v>-0.04515255315255316</v>
+        <v>0.08992499249924991</v>
       </c>
       <c r="F4">
-        <v>0.04916434916434917</v>
+        <v>-0.07599159915991598</v>
       </c>
       <c r="H4">
-        <v>-0.02564550164550165</v>
+        <v>-0.06741074107410741</v>
       </c>
       <c r="I4">
-        <v>-0.0415929295929296</v>
+        <v>-0.03313531353135313</v>
       </c>
       <c r="J4">
-        <v>-0.04544988642590527</v>
+        <v>0.0547542332253334</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -584,22 +584,22 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.003915063915063915</v>
+        <v>-0.1364656465646565</v>
       </c>
       <c r="E5">
-        <v>-0.01536836736836737</v>
+        <v>-0.104026402640264</v>
       </c>
       <c r="F5">
-        <v>0.03894179094179095</v>
+        <v>0.04314431443144313</v>
       </c>
       <c r="H5">
-        <v>0.0533010413010413</v>
+        <v>-0.06672667266726671</v>
       </c>
       <c r="I5">
-        <v>0.02059155259155259</v>
+        <v>-0.1426222622262226</v>
       </c>
       <c r="J5">
-        <v>0.01232956395853956</v>
+        <v>-0.1641245224361294</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -608,22 +608,22 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>0.005794613794613795</v>
+        <v>0.05422142214221421</v>
       </c>
       <c r="E6">
-        <v>0.0284010524010524</v>
+        <v>-0.08795679567956795</v>
       </c>
       <c r="F6">
-        <v>-0.041999141999142</v>
+        <v>0.1042424242424242</v>
       </c>
       <c r="H6">
-        <v>0.03944796344796345</v>
+        <v>-0.0144974497449745</v>
       </c>
       <c r="I6">
-        <v>0.06424772824772824</v>
+        <v>-0.04927692769276927</v>
       </c>
       <c r="J6">
-        <v>0.00914041195617688</v>
+        <v>0.09220026523032607</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -632,22 +632,22 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>-0.06184431784431785</v>
+        <v>-0.00468046804680468</v>
       </c>
       <c r="E7">
-        <v>-0.01645643245643246</v>
+        <v>-0.1267446744674467</v>
       </c>
       <c r="F7">
-        <v>0.001498381498381498</v>
+        <v>0.06669066906690668</v>
       </c>
       <c r="H7">
-        <v>-0.04457226857226858</v>
+        <v>0.006540654065406539</v>
       </c>
       <c r="I7">
-        <v>-0.04071701271701272</v>
+        <v>0.007704770477047704</v>
       </c>
       <c r="J7">
-        <v>0.0145226861504257</v>
+        <v>0.0592960590228265</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -656,22 +656,22 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.03375536175536176</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="E8">
-        <v>0.3042718722718722</v>
+        <v>-0.224062406240624</v>
       </c>
       <c r="F8">
-        <v>-0.04815541215541216</v>
+        <v>0.5241284128412841</v>
       </c>
       <c r="H8">
-        <v>0.9998983118983119</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I8">
-        <v>0.8663863223863224</v>
+        <v>0.8634503450345034</v>
       </c>
       <c r="J8">
-        <v>0.002054158743204522</v>
+        <v>0.01390783957830226</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -682,22 +682,22 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.9771141411141413</v>
+        <v>0.9734173417341733</v>
       </c>
       <c r="E9">
-        <v>-0.03764979764979765</v>
+        <v>0.2249264926492649</v>
       </c>
       <c r="F9">
-        <v>0.03734654534654535</v>
+        <v>-0.1854545454545454</v>
       </c>
       <c r="H9">
-        <v>-0.01572332772332772</v>
+        <v>-0.0007320732073207321</v>
       </c>
       <c r="I9">
-        <v>-0.01252329652329653</v>
+        <v>0.09438943894389439</v>
       </c>
       <c r="J9">
-        <v>0.01480638943104227</v>
+        <v>0.05583562031997463</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -708,22 +708,22 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>-0.004906156906156907</v>
+        <v>-0.08555655565556554</v>
       </c>
       <c r="E10">
-        <v>0.0263032703032703</v>
+        <v>-0.2532253225322532</v>
       </c>
       <c r="F10">
-        <v>-0.02654347454347454</v>
+        <v>0.1829102910291029</v>
       </c>
       <c r="H10">
-        <v>0.03065299865299866</v>
+        <v>0.05572157215721572</v>
       </c>
       <c r="I10">
-        <v>0.04376230376230376</v>
+        <v>-0.03294329432943294</v>
       </c>
       <c r="J10">
-        <v>-0.004882088641873258</v>
+        <v>-0.1850073087748675</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -734,22 +734,22 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>-0.03505976305976306</v>
+        <v>-0.05341734173417341</v>
       </c>
       <c r="E11">
-        <v>0.02495143295143296</v>
+        <v>0.111047104710471</v>
       </c>
       <c r="F11">
-        <v>-0.03518735918735919</v>
+        <v>-0.1604800480048005</v>
       </c>
       <c r="H11">
-        <v>-0.04294909894909895</v>
+        <v>-0.2049324932493249</v>
       </c>
       <c r="I11">
-        <v>-0.05291790491790493</v>
+        <v>-0.1291929192919292</v>
       </c>
       <c r="J11">
-        <v>0.001409299409014374</v>
+        <v>0.1095505203932362</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -760,22 +760,22 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.05967187167187168</v>
+        <v>0.005496549654965496</v>
       </c>
       <c r="E12">
-        <v>-0.03037015837015837</v>
+        <v>-0.01933393339333933</v>
       </c>
       <c r="F12">
-        <v>-0.0545019545019545</v>
+        <v>-0.1438703870387039</v>
       </c>
       <c r="H12">
-        <v>-0.01360861360861361</v>
+        <v>-0.09008100810081007</v>
       </c>
       <c r="I12">
-        <v>-0.02510431310431311</v>
+        <v>-0.1041584158415841</v>
       </c>
       <c r="J12">
-        <v>0.04149385649882144</v>
+        <v>-0.127159106917644</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -784,22 +784,22 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>0.06467576867576869</v>
+        <v>0.2603540354035404</v>
       </c>
       <c r="E13">
-        <v>0.3765607605607606</v>
+        <v>0.6885808580858086</v>
       </c>
       <c r="F13">
-        <v>-0.5490006090006091</v>
+        <v>-0.8300870087008699</v>
       </c>
       <c r="H13">
-        <v>-0.01767674967674968</v>
+        <v>-0.02807080708070807</v>
       </c>
       <c r="I13">
-        <v>0.4709067749067749</v>
+        <v>0.4652265226522652</v>
       </c>
       <c r="J13">
-        <v>0.01663582765111195</v>
+        <v>0.1520970948612866</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -808,22 +808,22 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.1912373752373752</v>
+        <v>-0.1017701770177018</v>
       </c>
       <c r="E14">
-        <v>0.01634711234711235</v>
+        <v>-0.1318331833183318</v>
       </c>
       <c r="F14">
-        <v>-0.008022836022836023</v>
+        <v>0.07571557155715571</v>
       </c>
       <c r="H14">
-        <v>-0.02407252807252807</v>
+        <v>0.03169516951695169</v>
       </c>
       <c r="I14">
-        <v>-0.02643480243480243</v>
+        <v>-0.03866786678667866</v>
       </c>
       <c r="J14">
-        <v>-0.0306325206657704</v>
+        <v>-0.2162533881039172</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Element</t>
   </si>
@@ -85,6 +85,24 @@
     <t>biorefinery</t>
   </si>
   <si>
+    <t>Stream-crude glycerol</t>
+  </si>
+  <si>
+    <t>Stream-pure glycerine</t>
+  </si>
+  <si>
+    <t>Stream-cellulase</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system</t>
+  </si>
+  <si>
+    <t>Pretreatment and saccharification</t>
+  </si>
+  <si>
+    <t>Cofermenation</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
@@ -113,6 +131,27 @@
   </si>
   <si>
     <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -470,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,121 +596,121 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.04039603960396039</v>
+        <v>-0.02038430913537236</v>
       </c>
       <c r="E4">
-        <v>0.08992499249924991</v>
+        <v>-0.0004323293932931757</v>
       </c>
       <c r="F4">
-        <v>-0.07599159915991598</v>
+        <v>-0.01690851677234067</v>
       </c>
       <c r="H4">
-        <v>-0.06741074107410741</v>
+        <v>-0.01932457795698312</v>
       </c>
       <c r="I4">
-        <v>-0.03313531353135313</v>
+        <v>-0.01926712281868491</v>
       </c>
       <c r="J4">
-        <v>0.0547542332253334</v>
+        <v>-0.01192898986858458</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.1364656465646565</v>
+        <v>-0.009347259637890385</v>
       </c>
       <c r="E5">
-        <v>-0.104026402640264</v>
+        <v>-0.0009893602955744116</v>
       </c>
       <c r="F5">
-        <v>0.04314431443144313</v>
+        <v>0.00840547550421902</v>
       </c>
       <c r="H5">
-        <v>-0.06672667266726671</v>
+        <v>0.0010542874981715</v>
       </c>
       <c r="I5">
-        <v>-0.1426222622262226</v>
+        <v>-0.0009816489032659559</v>
       </c>
       <c r="J5">
-        <v>-0.1641245224361294</v>
+        <v>0.007326653227662307</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0.05422142214221421</v>
+        <v>0.005383226423329056</v>
       </c>
       <c r="E6">
-        <v>-0.08795679567956795</v>
+        <v>-0.003216653984666159</v>
       </c>
       <c r="F6">
-        <v>0.1042424242424242</v>
+        <v>-0.003756622902264916</v>
       </c>
       <c r="H6">
-        <v>-0.0144974497449745</v>
+        <v>-0.004330928621237144</v>
       </c>
       <c r="I6">
-        <v>-0.04927692769276927</v>
+        <v>-0.003178638271145531</v>
       </c>
       <c r="J6">
-        <v>0.09220026523032607</v>
+        <v>0.0188119246847564</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>-0.00468046804680468</v>
+        <v>0.003741556181662247</v>
       </c>
       <c r="E7">
-        <v>-0.1267446744674467</v>
+        <v>-0.02035107182204287</v>
       </c>
       <c r="F7">
-        <v>0.06669066906690668</v>
+        <v>0.01389762650790506</v>
       </c>
       <c r="H7">
-        <v>0.006540654065406539</v>
+        <v>0.005269202706768108</v>
       </c>
       <c r="I7">
-        <v>0.007704770477047704</v>
+        <v>0.0009264983410599334</v>
       </c>
       <c r="J7">
-        <v>0.0592960590228265</v>
+        <v>-0.004858067822330753</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0.0396039603960396</v>
+        <v>0.0878455151618206</v>
       </c>
       <c r="E8">
-        <v>-0.224062406240624</v>
+        <v>-0.1333415963096638</v>
       </c>
       <c r="F8">
-        <v>0.5241284128412841</v>
+        <v>0.8117250636690023</v>
       </c>
       <c r="H8">
-        <v>0.9999999999999999</v>
+        <v>0.9999998073279921</v>
       </c>
       <c r="I8">
-        <v>0.8634503450345034</v>
+        <v>0.974378954879158</v>
       </c>
       <c r="J8">
-        <v>0.01390783957830226</v>
+        <v>-0.003878501375612164</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -679,25 +718,25 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>0.9734173417341733</v>
+        <v>0.9699378463815137</v>
       </c>
       <c r="E9">
-        <v>0.2249264926492649</v>
+        <v>0.01325651025826041</v>
       </c>
       <c r="F9">
-        <v>-0.1854545454545454</v>
+        <v>-0.02678267483130699</v>
       </c>
       <c r="H9">
-        <v>-0.0007320732073207321</v>
+        <v>-0.02723765225750609</v>
       </c>
       <c r="I9">
-        <v>0.09438943894389439</v>
+        <v>-0.02604824427392977</v>
       </c>
       <c r="J9">
-        <v>0.05583562031997463</v>
+        <v>0.02382340445058404</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -705,25 +744,25 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>-0.08555655565556554</v>
+        <v>0.00539054527162181</v>
       </c>
       <c r="E10">
-        <v>-0.2532253225322532</v>
+        <v>-0.01361928976077159</v>
       </c>
       <c r="F10">
-        <v>0.1829102910291029</v>
+        <v>0.01825339455413578</v>
       </c>
       <c r="H10">
-        <v>0.05572157215721572</v>
+        <v>0.01121432156857286</v>
       </c>
       <c r="I10">
-        <v>-0.03294329432943294</v>
+        <v>0.008461169330446773</v>
       </c>
       <c r="J10">
-        <v>-0.1850073087748675</v>
+        <v>0.004499170057816397</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -731,25 +770,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.05341734173417341</v>
+        <v>-0.002057717842308713</v>
       </c>
       <c r="E11">
-        <v>0.111047104710471</v>
+        <v>0.005802673192106927</v>
       </c>
       <c r="F11">
-        <v>-0.1604800480048005</v>
+        <v>-0.001279319571172783</v>
       </c>
       <c r="H11">
-        <v>-0.2049324932493249</v>
+        <v>0.005140181101607243</v>
       </c>
       <c r="I11">
-        <v>-0.1291929192919292</v>
+        <v>0.00758259678330387</v>
       </c>
       <c r="J11">
-        <v>0.1095505203932362</v>
+        <v>-0.003933901659445636</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -757,80 +796,311 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>0.005496549654965496</v>
+        <v>0.07121336358453453</v>
       </c>
       <c r="E12">
-        <v>-0.01933393339333933</v>
+        <v>-0.0025059649962386</v>
       </c>
       <c r="F12">
-        <v>-0.1438703870387039</v>
+        <v>-0.07358430150337204</v>
       </c>
       <c r="H12">
-        <v>-0.09008100810081007</v>
+        <v>0.02383353493734139</v>
       </c>
       <c r="I12">
-        <v>-0.1041584158415841</v>
+        <v>0.0207861575674463</v>
       </c>
       <c r="J12">
-        <v>-0.127159106917644</v>
+        <v>-0.005762202677573262</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>0.2603540354035404</v>
+        <v>0.06654216218168647</v>
       </c>
       <c r="E13">
-        <v>0.6885808580858086</v>
+        <v>0.8232373578254942</v>
       </c>
       <c r="F13">
-        <v>-0.8300870087008699</v>
+        <v>-0.5656586742423468</v>
       </c>
       <c r="H13">
-        <v>-0.02807080708070807</v>
+        <v>-0.01320350923214037</v>
       </c>
       <c r="I13">
-        <v>0.4652265226522652</v>
+        <v>0.2067890159195606</v>
       </c>
       <c r="J13">
-        <v>0.1520970948612866</v>
+        <v>0.008923519534977086</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.1017701770177018</v>
+        <v>-0.1619309735492389</v>
       </c>
       <c r="E14">
-        <v>-0.1318331833183318</v>
+        <v>0.02554030374161215</v>
       </c>
       <c r="F14">
-        <v>0.07571557155715571</v>
+        <v>0.00513254151730166</v>
       </c>
       <c r="H14">
-        <v>0.03169516951695169</v>
+        <v>0.02071402431656097</v>
       </c>
       <c r="I14">
-        <v>-0.03866786678667866</v>
+        <v>0.02511686980467479</v>
       </c>
       <c r="J14">
-        <v>-0.2162533881039172</v>
+        <v>-0.01040855726813382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>-0.01457535389501415</v>
+      </c>
+      <c r="E15">
+        <v>0.00756246375849855</v>
+      </c>
+      <c r="F15">
+        <v>-0.0008724860508994419</v>
+      </c>
+      <c r="H15">
+        <v>0.00204157774566311</v>
+      </c>
+      <c r="I15">
+        <v>0.003835622073424882</v>
+      </c>
+      <c r="J15">
+        <v>0.0002856462615667799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>-0.005023964360958573</v>
+      </c>
+      <c r="E16">
+        <v>-0.01828896130755845</v>
+      </c>
+      <c r="F16">
+        <v>0.03459687421587496</v>
+      </c>
+      <c r="H16">
+        <v>0.0268266276650651</v>
+      </c>
+      <c r="I16">
+        <v>0.02279120855964833</v>
+      </c>
+      <c r="J16">
+        <v>0.01585147926775476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>0.006561715078468601</v>
+      </c>
+      <c r="E17">
+        <v>0.01956865806274632</v>
+      </c>
+      <c r="F17">
+        <v>0.01192296114891844</v>
+      </c>
+      <c r="H17">
+        <v>0.04118857067154282</v>
+      </c>
+      <c r="I17">
+        <v>0.04670276855611073</v>
+      </c>
+      <c r="J17">
+        <v>-0.006521305035902069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0.02684286040171441</v>
+      </c>
+      <c r="E18">
+        <v>0.01681305369652214</v>
+      </c>
+      <c r="F18">
+        <v>0.004000094944003798</v>
+      </c>
+      <c r="H18">
+        <v>0.01337055279082211</v>
+      </c>
+      <c r="I18">
+        <v>0.01622840628113625</v>
+      </c>
+      <c r="J18">
+        <v>0.002433904584880677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>0.01086679195467168</v>
+      </c>
+      <c r="E19">
+        <v>-0.00138182299927292</v>
+      </c>
+      <c r="F19">
+        <v>-0.001776527687061107</v>
+      </c>
+      <c r="H19">
+        <v>0.002065366834614673</v>
+      </c>
+      <c r="I19">
+        <v>0.003863478394539135</v>
+      </c>
+      <c r="J19">
+        <v>0.03850506195208022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>0.009104407660176304</v>
+      </c>
+      <c r="E20">
+        <v>-0.006732873485314938</v>
+      </c>
+      <c r="F20">
+        <v>0.000816372224654889</v>
+      </c>
+      <c r="H20">
+        <v>-0.0005883553195342127</v>
+      </c>
+      <c r="I20">
+        <v>-0.001004246920169877</v>
+      </c>
+      <c r="J20">
+        <v>0.01914889705612044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0.02385028895401155</v>
+      </c>
+      <c r="E21">
+        <v>0.007981756447270257</v>
+      </c>
+      <c r="F21">
+        <v>0.01629290378771615</v>
+      </c>
+      <c r="H21">
+        <v>0.0241071849642874</v>
+      </c>
+      <c r="I21">
+        <v>0.02428224865128994</v>
+      </c>
+      <c r="J21">
+        <v>-0.01204216487617777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0.01228809937152397</v>
+      </c>
+      <c r="E22">
+        <v>0.0004654482426179297</v>
+      </c>
+      <c r="F22">
+        <v>-0.0013446925017877</v>
+      </c>
+      <c r="H22">
+        <v>-0.0007642646705705868</v>
+      </c>
+      <c r="I22">
+        <v>-0.0009532179261287168</v>
+      </c>
+      <c r="J22">
+        <v>0.02597181735194982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>-0.008235454217418166</v>
+      </c>
+      <c r="E23">
+        <v>0.0009564974782598991</v>
+      </c>
+      <c r="F23">
+        <v>-0.00842352427294097</v>
+      </c>
+      <c r="H23">
+        <v>-0.008494249011769959</v>
+      </c>
+      <c r="I23">
+        <v>-0.01008051323522053</v>
+      </c>
+      <c r="J23">
+        <v>0.005367347070386365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -599,22 +599,22 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.02038430913537236</v>
+        <v>-0.0202168574806743</v>
       </c>
       <c r="E4">
-        <v>-0.0004323293932931757</v>
+        <v>0.009442948505717938</v>
       </c>
       <c r="F4">
-        <v>-0.01690851677234067</v>
+        <v>0.01953356698934268</v>
       </c>
       <c r="H4">
-        <v>-0.01932457795698312</v>
+        <v>-0.01932747370109895</v>
       </c>
       <c r="I4">
         <v>-0.01926712281868491</v>
       </c>
       <c r="J4">
-        <v>-0.01192898986858458</v>
+        <v>-0.006047168476769442</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -623,22 +623,22 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.009347259637890385</v>
+        <v>-0.009474448218977928</v>
       </c>
       <c r="E5">
-        <v>-0.0009893602955744116</v>
+        <v>-0.006712346380493854</v>
       </c>
       <c r="F5">
-        <v>0.00840547550421902</v>
+        <v>0.002650578058023122</v>
       </c>
       <c r="H5">
-        <v>0.0010542874981715</v>
+        <v>0.001057213386288535</v>
       </c>
       <c r="I5">
         <v>-0.0009816489032659559</v>
       </c>
       <c r="J5">
-        <v>0.007326653227662307</v>
+        <v>0.002319020709093875</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -647,22 +647,22 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.005383226423329056</v>
+        <v>0.005435377465415098</v>
       </c>
       <c r="E6">
-        <v>-0.003216653984666159</v>
+        <v>-0.0004470717298828692</v>
       </c>
       <c r="F6">
-        <v>-0.003756622902264916</v>
+        <v>0.003988637151545486</v>
       </c>
       <c r="H6">
-        <v>-0.004330928621237144</v>
+        <v>-0.004334404205376167</v>
       </c>
       <c r="I6">
         <v>-0.003178638271145531</v>
       </c>
       <c r="J6">
-        <v>0.0188119246847564</v>
+        <v>-0.001797001047756817</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -671,22 +671,22 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.003741556181662247</v>
+        <v>0.003723370708934828</v>
       </c>
       <c r="E7">
-        <v>-0.02035107182204287</v>
+        <v>-0.02004915440196617</v>
       </c>
       <c r="F7">
-        <v>0.01389762650790506</v>
+        <v>0.0005655055906202235</v>
       </c>
       <c r="H7">
-        <v>0.005269202706768108</v>
+        <v>0.005264370930574836</v>
       </c>
       <c r="I7">
         <v>0.0009264983410599334</v>
       </c>
       <c r="J7">
-        <v>-0.004858067822330753</v>
+        <v>0.0007928998079122779</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -695,22 +695,22 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.0878455151618206</v>
+        <v>0.078027200401088</v>
       </c>
       <c r="E8">
-        <v>-0.1333415963096638</v>
+        <v>-0.2246937710037508</v>
       </c>
       <c r="F8">
-        <v>0.8117250636690023</v>
+        <v>-0.9628999603399983</v>
       </c>
       <c r="H8">
-        <v>0.9999998073279921</v>
+        <v>0.9999999085119963</v>
       </c>
       <c r="I8">
         <v>0.974378954879158</v>
       </c>
       <c r="J8">
-        <v>-0.003878501375612164</v>
+        <v>-0.05410777799973252</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -721,22 +721,22 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.9699378463815137</v>
+        <v>0.9709073071242921</v>
       </c>
       <c r="E9">
-        <v>0.01325651025826041</v>
+        <v>0.01628250861930034</v>
       </c>
       <c r="F9">
-        <v>-0.02678267483130699</v>
+        <v>0.02394311058972442</v>
       </c>
       <c r="H9">
-        <v>-0.02723765225750609</v>
+        <v>-0.02724026144161045</v>
       </c>
       <c r="I9">
         <v>-0.02604824427392977</v>
       </c>
       <c r="J9">
-        <v>0.02382340445058404</v>
+        <v>0.01998509579277222</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -747,22 +747,22 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>0.00539054527162181</v>
+        <v>0.005281874131274964</v>
       </c>
       <c r="E10">
-        <v>-0.01361928976077159</v>
+        <v>-0.01527151433886057</v>
       </c>
       <c r="F10">
-        <v>0.01825339455413578</v>
+        <v>-0.006659213738368548</v>
       </c>
       <c r="H10">
-        <v>0.01121432156857286</v>
+        <v>0.01121673366466935</v>
       </c>
       <c r="I10">
         <v>0.008461169330446773</v>
       </c>
       <c r="J10">
-        <v>0.004499170057816397</v>
+        <v>-0.02628444167791655</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -773,22 +773,22 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.002057717842308713</v>
+        <v>-0.002057418226296729</v>
       </c>
       <c r="E11">
-        <v>0.005802673192106927</v>
+        <v>0.008232176009287039</v>
       </c>
       <c r="F11">
-        <v>-0.001279319571172783</v>
+        <v>-0.007694493427779736</v>
       </c>
       <c r="H11">
-        <v>0.005140181101607243</v>
+        <v>0.005147597965903918</v>
       </c>
       <c r="I11">
         <v>0.00758259678330387</v>
       </c>
       <c r="J11">
-        <v>-0.003933901659445636</v>
+        <v>0.0003062826501658919</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -799,22 +799,22 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>0.07121336358453453</v>
+        <v>0.06920739944029597</v>
       </c>
       <c r="E12">
-        <v>-0.0025059649962386</v>
+        <v>0.0001130480685219227</v>
       </c>
       <c r="F12">
-        <v>-0.07358430150337204</v>
+        <v>-0.06565117481804698</v>
       </c>
       <c r="H12">
-        <v>0.02383353493734139</v>
+        <v>0.02383479896939196</v>
       </c>
       <c r="I12">
         <v>0.0207861575674463</v>
       </c>
       <c r="J12">
-        <v>-0.005762202677573262</v>
+        <v>-0.006597131294680632</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -823,22 +823,22 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>0.06654216218168647</v>
+        <v>0.06714615849384634</v>
       </c>
       <c r="E13">
-        <v>0.8232373578254942</v>
+        <v>0.851684828627393</v>
       </c>
       <c r="F13">
-        <v>-0.5656586742423468</v>
+        <v>-0.2456314848332594</v>
       </c>
       <c r="H13">
-        <v>-0.01320350923214037</v>
+        <v>-0.01319485435179417</v>
       </c>
       <c r="I13">
         <v>0.2067890159195606</v>
       </c>
       <c r="J13">
-        <v>0.008923519534977086</v>
+        <v>0.007292730773770639</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -847,22 +847,22 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.1619309735492389</v>
+        <v>-0.163567675598707</v>
       </c>
       <c r="E14">
-        <v>0.02554030374161215</v>
+        <v>0.02252694186107767</v>
       </c>
       <c r="F14">
-        <v>0.00513254151730166</v>
+        <v>-0.02517815678312627</v>
       </c>
       <c r="H14">
-        <v>0.02071402431656097</v>
+        <v>0.0207202950368118</v>
       </c>
       <c r="I14">
         <v>0.02511686980467479</v>
       </c>
       <c r="J14">
-        <v>-0.01040855726813382</v>
+        <v>0.002127535125176377</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -873,22 +873,22 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.01457535389501415</v>
+        <v>-0.01453517866140715</v>
       </c>
       <c r="E15">
-        <v>0.00756246375849855</v>
+        <v>0.008239290665571625</v>
       </c>
       <c r="F15">
-        <v>-0.0008724860508994419</v>
+        <v>-0.003166207422648297</v>
       </c>
       <c r="H15">
-        <v>0.00204157774566311</v>
+        <v>0.002036556657462266</v>
       </c>
       <c r="I15">
         <v>0.003835622073424882</v>
       </c>
       <c r="J15">
-        <v>0.0002856462615667799</v>
+        <v>-0.008950762962789171</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -899,22 +899,22 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>-0.005023964360958573</v>
+        <v>-0.005310071540402861</v>
       </c>
       <c r="E16">
-        <v>-0.01828896130755845</v>
+        <v>-0.02103732688949307</v>
       </c>
       <c r="F16">
-        <v>0.03459687421587496</v>
+        <v>-0.02111880468475218</v>
       </c>
       <c r="H16">
-        <v>0.0268266276650651</v>
+        <v>0.02683267364930694</v>
       </c>
       <c r="I16">
         <v>0.02279120855964833</v>
       </c>
       <c r="J16">
-        <v>0.01585147926775476</v>
+        <v>0.01543438316297372</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -925,22 +925,22 @@
         <v>39</v>
       </c>
       <c r="C17">
-        <v>0.006561715078468601</v>
+        <v>0.006002473200098927</v>
       </c>
       <c r="E17">
-        <v>0.01956865806274632</v>
+        <v>0.01879000193560008</v>
       </c>
       <c r="F17">
-        <v>0.01192296114891844</v>
+        <v>-0.04778786303151451</v>
       </c>
       <c r="H17">
-        <v>0.04118857067154282</v>
+        <v>0.04119389041575561</v>
       </c>
       <c r="I17">
         <v>0.04670276855611073</v>
       </c>
       <c r="J17">
-        <v>-0.006521305035902069</v>
+        <v>0.01000934417930227</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -949,22 +949,22 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>0.02684286040171441</v>
+        <v>0.02663205562528222</v>
       </c>
       <c r="E18">
-        <v>0.01681305369652214</v>
+        <v>0.01569075768363031</v>
       </c>
       <c r="F18">
-        <v>0.004000094944003798</v>
+        <v>-0.01690509658020386</v>
       </c>
       <c r="H18">
-        <v>0.01337055279082211</v>
+        <v>0.01337378808695152</v>
       </c>
       <c r="I18">
         <v>0.01622840628113625</v>
       </c>
       <c r="J18">
-        <v>0.002433904584880677</v>
+        <v>0.005914755413071732</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -975,22 +975,22 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>0.01086679195467168</v>
+        <v>0.01085104728204189</v>
       </c>
       <c r="E19">
-        <v>-0.00138182299927292</v>
+        <v>0.0005848441193937647</v>
       </c>
       <c r="F19">
-        <v>-0.001776527687061107</v>
+        <v>-0.003659036690361467</v>
       </c>
       <c r="H19">
-        <v>0.002065366834614673</v>
+        <v>0.002064199858567994</v>
       </c>
       <c r="I19">
         <v>0.003863478394539135</v>
       </c>
       <c r="J19">
-        <v>0.03850506195208022</v>
+        <v>-0.009163207042856778</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1001,22 +1001,22 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>0.009104407660176304</v>
+        <v>0.009232352721294109</v>
       </c>
       <c r="E20">
-        <v>-0.006732873485314938</v>
+        <v>-0.005457511322300452</v>
       </c>
       <c r="F20">
-        <v>0.000816372224654889</v>
+        <v>0.001656558306262332</v>
       </c>
       <c r="H20">
-        <v>-0.0005883553195342127</v>
+        <v>-0.000583583351343334</v>
       </c>
       <c r="I20">
         <v>-0.001004246920169877</v>
       </c>
       <c r="J20">
-        <v>0.01914889705612044</v>
+        <v>0.01209684775406746</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1025,22 +1025,22 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>0.02385028895401155</v>
+        <v>0.0236794775871791</v>
       </c>
       <c r="E21">
-        <v>0.007981756447270257</v>
+        <v>0.006258251578330062</v>
       </c>
       <c r="F21">
-        <v>0.01629290378771615</v>
+        <v>-0.02467307561092302</v>
       </c>
       <c r="H21">
-        <v>0.0241071849642874</v>
+        <v>0.02410193568407742</v>
       </c>
       <c r="I21">
         <v>0.02428224865128994</v>
       </c>
       <c r="J21">
-        <v>-0.01204216487617777</v>
+        <v>-0.005996936327910488</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1051,22 +1051,22 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.01228809937152397</v>
+        <v>0.01217704704708188</v>
       </c>
       <c r="E22">
-        <v>0.0004654482426179297</v>
+        <v>-0.001811484840459393</v>
       </c>
       <c r="F22">
-        <v>-0.0013446925017877</v>
+        <v>0.001723300964932038</v>
       </c>
       <c r="H22">
-        <v>-0.0007642646705705868</v>
+        <v>-0.0007693279987731199</v>
       </c>
       <c r="I22">
         <v>-0.0009532179261287168</v>
       </c>
       <c r="J22">
-        <v>0.02597181735194982</v>
+        <v>0.0260608936875783</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1075,22 +1075,22 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.008235454217418166</v>
+        <v>-0.008212617160504684</v>
       </c>
       <c r="E23">
-        <v>0.0009564974782598991</v>
+        <v>0.002784168975366759</v>
       </c>
       <c r="F23">
-        <v>-0.00842352427294097</v>
+        <v>0.009293538419741535</v>
       </c>
       <c r="H23">
-        <v>-0.008494249011769959</v>
+        <v>-0.008494716339788653</v>
       </c>
       <c r="I23">
         <v>-0.01008051323522053</v>
       </c>
       <c r="J23">
-        <v>0.005367347070386365</v>
+        <v>0.01308304582140079</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -599,22 +599,22 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.0202168574806743</v>
+        <v>-0.02021663149666526</v>
       </c>
       <c r="E4">
-        <v>0.009442948505717938</v>
+        <v>0.00944277877771115</v>
       </c>
       <c r="F4">
-        <v>0.01953356698934268</v>
+        <v>0.01953305233332209</v>
       </c>
       <c r="H4">
-        <v>-0.01932747370109895</v>
+        <v>-0.01932764957310598</v>
       </c>
       <c r="I4">
         <v>-0.01926712281868491</v>
       </c>
       <c r="J4">
-        <v>-0.006047168476769442</v>
+        <v>-0.005341641227229319</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -623,22 +623,22 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.009474448218977928</v>
+        <v>-0.009474706458988257</v>
       </c>
       <c r="E5">
-        <v>-0.006712346380493854</v>
+        <v>-0.006712324012492959</v>
       </c>
       <c r="F5">
-        <v>0.002650578058023122</v>
+        <v>0.002650902442036097</v>
       </c>
       <c r="H5">
-        <v>0.001057213386288535</v>
+        <v>0.001057084842283393</v>
       </c>
       <c r="I5">
         <v>-0.0009816489032659559</v>
       </c>
       <c r="J5">
-        <v>0.002319020709093875</v>
+        <v>0.01273700181140178</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -647,22 +647,22 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.005435377465415098</v>
+        <v>0.005435903641436144</v>
       </c>
       <c r="E6">
-        <v>-0.0004470717298828692</v>
+        <v>-0.0004468193458727738</v>
       </c>
       <c r="F6">
-        <v>0.003988637151545486</v>
+        <v>0.003988895679555828</v>
       </c>
       <c r="H6">
-        <v>-0.004334404205376167</v>
+        <v>-0.004334956877398274</v>
       </c>
       <c r="I6">
         <v>-0.003178638271145531</v>
       </c>
       <c r="J6">
-        <v>-0.001797001047756817</v>
+        <v>0.006552475632849239</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -671,22 +671,22 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.003723370708934828</v>
+        <v>0.003723509524940381</v>
       </c>
       <c r="E7">
-        <v>-0.02004915440196617</v>
+        <v>-0.02004933142597325</v>
       </c>
       <c r="F7">
-        <v>0.0005655055906202235</v>
+        <v>0.0005657480866299233</v>
       </c>
       <c r="H7">
-        <v>0.005264370930574836</v>
+        <v>0.005263905714556228</v>
       </c>
       <c r="I7">
         <v>0.0009264983410599334</v>
       </c>
       <c r="J7">
-        <v>0.0007928998079122779</v>
+        <v>0.01445295345237692</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -695,22 +695,22 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.078027200401088</v>
+        <v>0.07802736340909452</v>
       </c>
       <c r="E8">
-        <v>-0.2246937710037508</v>
+        <v>-0.2246942173077686</v>
       </c>
       <c r="F8">
-        <v>-0.9628999603399983</v>
+        <v>-0.9629001014600039</v>
       </c>
       <c r="H8">
-        <v>0.9999999085119963</v>
+        <v>0.9999999080319962</v>
       </c>
       <c r="I8">
         <v>0.974378954879158</v>
       </c>
       <c r="J8">
-        <v>-0.05410777799973252</v>
+        <v>-0.04040152520516974</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -721,22 +721,22 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.9709073071242921</v>
+        <v>0.9709072535562899</v>
       </c>
       <c r="E9">
-        <v>0.01628250861930034</v>
+        <v>0.01628305361132214</v>
       </c>
       <c r="F9">
-        <v>0.02394311058972442</v>
+        <v>0.02394338918173557</v>
       </c>
       <c r="H9">
-        <v>-0.02724026144161045</v>
+        <v>-0.02724055961762238</v>
       </c>
       <c r="I9">
         <v>-0.02604824427392977</v>
       </c>
       <c r="J9">
-        <v>0.01998509579277222</v>
+        <v>0.01638948656717849</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -747,22 +747,22 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>0.005281874131274964</v>
+        <v>0.005281818835272753</v>
       </c>
       <c r="E10">
-        <v>-0.01527151433886057</v>
+        <v>-0.01527089561883582</v>
       </c>
       <c r="F10">
-        <v>-0.006659213738368548</v>
+        <v>-0.006660075914403036</v>
       </c>
       <c r="H10">
-        <v>0.01121673366466935</v>
+        <v>0.01121677052867082</v>
       </c>
       <c r="I10">
         <v>0.008461169330446773</v>
       </c>
       <c r="J10">
-        <v>-0.02628444167791655</v>
+        <v>-0.01770858189635154</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -773,22 +773,22 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.002057418226296729</v>
+        <v>-0.002057653906306156</v>
       </c>
       <c r="E11">
-        <v>0.008232176009287039</v>
+        <v>0.008232181193287245</v>
       </c>
       <c r="F11">
-        <v>-0.007694493427779736</v>
+        <v>-0.007694576659783065</v>
       </c>
       <c r="H11">
-        <v>0.005147597965903918</v>
+        <v>0.005148021805920871</v>
       </c>
       <c r="I11">
         <v>0.00758259678330387</v>
       </c>
       <c r="J11">
-        <v>0.0003062826501658919</v>
+        <v>-0.004990855374187153</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -799,22 +799,22 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>0.06920739944029597</v>
+        <v>0.06920738052829521</v>
       </c>
       <c r="E12">
-        <v>0.0001130480685219227</v>
+        <v>0.0001128647085145883</v>
       </c>
       <c r="F12">
-        <v>-0.06565117481804698</v>
+        <v>-0.06565128137805123</v>
       </c>
       <c r="H12">
-        <v>0.02383479896939196</v>
+        <v>0.02383454898538195</v>
       </c>
       <c r="I12">
         <v>0.0207861575674463</v>
       </c>
       <c r="J12">
-        <v>-0.006597131294680632</v>
+        <v>0.01796177608109947</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -823,22 +823,22 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>0.06714615849384634</v>
+        <v>0.06714553881382154</v>
       </c>
       <c r="E13">
-        <v>0.851684828627393</v>
+        <v>0.8516846920193875</v>
       </c>
       <c r="F13">
-        <v>-0.2456314848332594</v>
+        <v>-0.245630975553239</v>
       </c>
       <c r="H13">
-        <v>-0.01319485435179417</v>
+        <v>-0.01319457604778304</v>
       </c>
       <c r="I13">
         <v>0.2067890159195606</v>
       </c>
       <c r="J13">
-        <v>0.007292730773770639</v>
+        <v>-0.00169264213521143</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -847,22 +847,22 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.163567675598707</v>
+        <v>-0.163568025614721</v>
       </c>
       <c r="E14">
-        <v>0.02252694186107767</v>
+        <v>0.02252665213306608</v>
       </c>
       <c r="F14">
-        <v>-0.02517815678312627</v>
+        <v>-0.02517822091112883</v>
       </c>
       <c r="H14">
-        <v>0.0207202950368118</v>
+        <v>0.0207201375968055</v>
       </c>
       <c r="I14">
         <v>0.02511686980467479</v>
       </c>
       <c r="J14">
-        <v>0.002127535125176377</v>
+        <v>-0.0005100817339697825</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -873,22 +873,22 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.01453517866140715</v>
+        <v>-0.01453519670940787</v>
       </c>
       <c r="E15">
-        <v>0.008239290665571625</v>
+        <v>0.008239000457560017</v>
       </c>
       <c r="F15">
-        <v>-0.003166207422648297</v>
+        <v>-0.003166768542670742</v>
       </c>
       <c r="H15">
-        <v>0.002036556657462266</v>
+        <v>0.002036638353465534</v>
       </c>
       <c r="I15">
         <v>0.003835622073424882</v>
       </c>
       <c r="J15">
-        <v>-0.008950762962789171</v>
+        <v>0.00255185825175936</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -899,22 +899,22 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>-0.005310071540402861</v>
+        <v>-0.005309955860398234</v>
       </c>
       <c r="E16">
-        <v>-0.02103732688949307</v>
+        <v>-0.02103744487349779</v>
       </c>
       <c r="F16">
-        <v>-0.02111880468475218</v>
+        <v>-0.02111889665275586</v>
       </c>
       <c r="H16">
-        <v>0.02683267364930694</v>
+        <v>0.02683284952131398</v>
       </c>
       <c r="I16">
         <v>0.02279120855964833</v>
       </c>
       <c r="J16">
-        <v>0.01543438316297372</v>
+        <v>-0.01377416873392978</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -925,22 +925,22 @@
         <v>39</v>
       </c>
       <c r="C17">
-        <v>0.006002473200098927</v>
+        <v>0.006002090448083616</v>
       </c>
       <c r="E17">
-        <v>0.01879000193560008</v>
+        <v>0.01878996132759845</v>
       </c>
       <c r="F17">
-        <v>-0.04778786303151451</v>
+        <v>-0.04778840197553607</v>
       </c>
       <c r="H17">
-        <v>0.04119389041575561</v>
+        <v>0.0411947475997899</v>
       </c>
       <c r="I17">
         <v>0.04670276855611073</v>
       </c>
       <c r="J17">
-        <v>0.01000934417930227</v>
+        <v>0.002587143452201412</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -949,22 +949,22 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>0.02663205562528222</v>
+        <v>0.02663246429729857</v>
       </c>
       <c r="E18">
-        <v>0.01569075768363031</v>
+        <v>0.0156903449796138</v>
       </c>
       <c r="F18">
-        <v>-0.01690509658020386</v>
+        <v>-0.01690512134820485</v>
       </c>
       <c r="H18">
-        <v>0.01337378808695152</v>
+        <v>0.01337277960691118</v>
       </c>
       <c r="I18">
         <v>0.01622840628113625</v>
       </c>
       <c r="J18">
-        <v>0.005914755413071732</v>
+        <v>0.02388859927857544</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -975,22 +975,22 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>0.01085104728204189</v>
+        <v>0.01085084203403368</v>
       </c>
       <c r="E19">
-        <v>0.0005848441193937647</v>
+        <v>0.0005845856873834275</v>
       </c>
       <c r="F19">
-        <v>-0.003659036690361467</v>
+        <v>-0.003659187218367488</v>
       </c>
       <c r="H19">
-        <v>0.002064199858567994</v>
+        <v>0.002063762866550514</v>
       </c>
       <c r="I19">
         <v>0.003863478394539135</v>
       </c>
       <c r="J19">
-        <v>-0.009163207042856778</v>
+        <v>0.004227246625160694</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1001,22 +1001,22 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>0.009232352721294109</v>
+        <v>0.009232484049299361</v>
       </c>
       <c r="E20">
-        <v>-0.005457511322300452</v>
+        <v>-0.005458068314322732</v>
       </c>
       <c r="F20">
-        <v>0.001656558306262332</v>
+        <v>0.001656151170246047</v>
       </c>
       <c r="H20">
-        <v>-0.000583583351343334</v>
+        <v>-0.0005838196073527842</v>
       </c>
       <c r="I20">
         <v>-0.001004246920169877</v>
       </c>
       <c r="J20">
-        <v>0.01209684775406746</v>
+        <v>-0.007931675869542396</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1025,22 +1025,22 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>0.0236794775871791</v>
+        <v>0.02367959374718374</v>
       </c>
       <c r="E21">
-        <v>0.006258251578330062</v>
+        <v>0.006257330458293217</v>
       </c>
       <c r="F21">
-        <v>-0.02467307561092302</v>
+        <v>-0.02467313042692521</v>
       </c>
       <c r="H21">
-        <v>0.02410193568407742</v>
+        <v>0.02410244486809779</v>
       </c>
       <c r="I21">
         <v>0.02428224865128994</v>
       </c>
       <c r="J21">
-        <v>-0.005996936327910488</v>
+        <v>-0.01621114380055195</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1051,22 +1051,22 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.01217704704708188</v>
+        <v>0.01217714621508585</v>
       </c>
       <c r="E22">
-        <v>-0.001811484840459393</v>
+        <v>-0.001810838952433558</v>
       </c>
       <c r="F22">
-        <v>0.001723300964932038</v>
+        <v>0.001723502660940106</v>
       </c>
       <c r="H22">
-        <v>-0.0007693279987731199</v>
+        <v>-0.0007684522867380914</v>
       </c>
       <c r="I22">
         <v>-0.0009532179261287168</v>
       </c>
       <c r="J22">
-        <v>0.0260608936875783</v>
+        <v>-0.005064764741794004</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1075,22 +1075,22 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.008212617160504684</v>
+        <v>-0.008212455880498234</v>
       </c>
       <c r="E23">
-        <v>0.002784168975366759</v>
+        <v>0.00278359076734363</v>
       </c>
       <c r="F23">
-        <v>0.009293538419741535</v>
+        <v>0.009292844627713783</v>
       </c>
       <c r="H23">
-        <v>-0.008494716339788653</v>
+        <v>-0.008494314963772598</v>
       </c>
       <c r="I23">
         <v>-0.01008051323522053</v>
       </c>
       <c r="J23">
-        <v>0.01308304582140079</v>
+        <v>0.01352005997434009</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Element</t>
   </si>
@@ -118,6 +118,21 @@
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>TAG to  FFA conversion [% lipid]</t>
+  </si>
+  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -142,10 +157,16 @@
     <t>Base cost [million USD]</t>
   </si>
   <si>
-    <t>Glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose yield [%]</t>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
   </si>
   <si>
     <t>Glucose to ethanol yield [%]</t>
@@ -509,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,22 +620,22 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.02021663149666526</v>
+        <v>-0.04660037860037861</v>
       </c>
       <c r="E4">
-        <v>0.00944277877771115</v>
+        <v>0.04814836814836815</v>
       </c>
       <c r="F4">
-        <v>0.01953305233332209</v>
+        <v>-0.03184008784008784</v>
       </c>
       <c r="H4">
-        <v>-0.01932764957310598</v>
+        <v>0.01999341199341199</v>
       </c>
       <c r="I4">
-        <v>-0.01926712281868491</v>
+        <v>0.02927555327555328</v>
       </c>
       <c r="J4">
-        <v>-0.005341641227229319</v>
+        <v>0.005216214340192776</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -623,22 +644,22 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.009474706458988257</v>
+        <v>-0.01744488544488544</v>
       </c>
       <c r="E5">
-        <v>-0.006712324012492959</v>
+        <v>-0.03236231636231637</v>
       </c>
       <c r="F5">
-        <v>0.002650902442036097</v>
+        <v>0.00459020859020859</v>
       </c>
       <c r="H5">
-        <v>0.001057084842283393</v>
+        <v>0.0001692601692601693</v>
       </c>
       <c r="I5">
-        <v>-0.0009816489032659559</v>
+        <v>-0.005886209886209887</v>
       </c>
       <c r="J5">
-        <v>0.01273700181140178</v>
+        <v>-0.0116632175894564</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -647,22 +668,22 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.005435903641436144</v>
+        <v>0.05373526173526175</v>
       </c>
       <c r="E6">
-        <v>-0.0004468193458727738</v>
+        <v>0.02668350268350269</v>
       </c>
       <c r="F6">
-        <v>0.003988895679555828</v>
+        <v>-0.02636527436527437</v>
       </c>
       <c r="H6">
-        <v>-0.004334956877398274</v>
+        <v>0.02171052971052971</v>
       </c>
       <c r="I6">
-        <v>-0.003178638271145531</v>
+        <v>0.02856575256575257</v>
       </c>
       <c r="J6">
-        <v>0.006552475632849239</v>
+        <v>-0.01643892812163158</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -671,22 +692,22 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.003723509524940381</v>
+        <v>-0.04066158466158466</v>
       </c>
       <c r="E7">
-        <v>-0.02004933142597325</v>
+        <v>0.04567797367797368</v>
       </c>
       <c r="F7">
-        <v>0.0005657480866299233</v>
+        <v>0.04757169557169558</v>
       </c>
       <c r="H7">
-        <v>0.005263905714556228</v>
+        <v>-0.06304071904071905</v>
       </c>
       <c r="I7">
-        <v>0.0009264983410599334</v>
+        <v>-0.05188736788736789</v>
       </c>
       <c r="J7">
-        <v>0.01445295345237692</v>
+        <v>-0.04187123295761444</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -695,378 +716,372 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.07802736340909452</v>
+        <v>0.1192478392478393</v>
       </c>
       <c r="E8">
-        <v>-0.2246942173077686</v>
+        <v>-0.01432170232170232</v>
       </c>
       <c r="F8">
-        <v>-0.9629001014600039</v>
+        <v>-0.9620984420984422</v>
       </c>
       <c r="H8">
-        <v>0.9999999080319962</v>
+        <v>0.9999999879999882</v>
       </c>
       <c r="I8">
-        <v>0.974378954879158</v>
+        <v>0.9744730584730585</v>
       </c>
       <c r="J8">
-        <v>-0.04040152520516974</v>
+        <v>-0.02660993208069475</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.9709072535562899</v>
+        <v>0.009958257958257959</v>
       </c>
       <c r="E9">
-        <v>0.01628305361132214</v>
+        <v>-0.009452217452217452</v>
       </c>
       <c r="F9">
-        <v>0.02394338918173557</v>
+        <v>-0.02722975522975523</v>
       </c>
       <c r="H9">
-        <v>-0.02724055961762238</v>
+        <v>0.03406724206724207</v>
       </c>
       <c r="I9">
-        <v>-0.02604824427392977</v>
+        <v>0.03017574617574618</v>
       </c>
       <c r="J9">
-        <v>0.01638948656717849</v>
+        <v>0.06075327373101429</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>0.005281818835272753</v>
+        <v>-0.001412029412029412</v>
       </c>
       <c r="E10">
-        <v>-0.01527089561883582</v>
+        <v>-0.07043482643482644</v>
       </c>
       <c r="F10">
-        <v>-0.006660075914403036</v>
+        <v>0.0945033945033945</v>
       </c>
       <c r="H10">
-        <v>0.01121677052867082</v>
+        <v>-0.07774355374355375</v>
       </c>
       <c r="I10">
-        <v>0.008461169330446773</v>
+        <v>-0.09023705423705423</v>
       </c>
       <c r="J10">
-        <v>-0.01770858189635154</v>
+        <v>-0.002918144819671102</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.002057653906306156</v>
+        <v>-0.04223759423759424</v>
       </c>
       <c r="E11">
-        <v>0.008232181193287245</v>
+        <v>-0.02775066375066376</v>
       </c>
       <c r="F11">
-        <v>-0.007694576659783065</v>
+        <v>0.01621798021798022</v>
       </c>
       <c r="H11">
-        <v>0.005148021805920871</v>
+        <v>-0.008299496299496299</v>
       </c>
       <c r="I11">
-        <v>0.00758259678330387</v>
+        <v>-0.01304689304689305</v>
       </c>
       <c r="J11">
-        <v>-0.004990855374187153</v>
+        <v>-0.0347014160249794</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>0.06920738052829521</v>
+        <v>-0.03681943281943282</v>
       </c>
       <c r="E12">
-        <v>0.0001128647085145883</v>
+        <v>0.05713671313671313</v>
       </c>
       <c r="F12">
-        <v>-0.06565128137805123</v>
+        <v>0.03387094587094588</v>
       </c>
       <c r="H12">
-        <v>0.02383454898538195</v>
+        <v>-0.05202722802722803</v>
       </c>
       <c r="I12">
-        <v>0.0207861575674463</v>
+        <v>-0.03650521250521251</v>
       </c>
       <c r="J12">
-        <v>0.01796177608109947</v>
+        <v>0.01015733673348077</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>0.06714553881382154</v>
+        <v>0.0161988881988882</v>
       </c>
       <c r="E13">
-        <v>0.8516846920193875</v>
+        <v>0.01318005718005718</v>
       </c>
       <c r="F13">
-        <v>-0.245630975553239</v>
+        <v>-0.01965318765318766</v>
       </c>
       <c r="H13">
-        <v>-0.01319457604778304</v>
+        <v>0.01691886491886492</v>
       </c>
       <c r="I13">
-        <v>0.2067890159195606</v>
+        <v>0.01803684603684604</v>
       </c>
       <c r="J13">
-        <v>-0.00169264213521143</v>
+        <v>-0.002406602664272236</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.163568025614721</v>
+        <v>0.9701300141300142</v>
       </c>
       <c r="E14">
-        <v>0.02252665213306608</v>
+        <v>-0.03344753744753745</v>
       </c>
       <c r="F14">
-        <v>-0.02517822091112883</v>
+        <v>-0.001511917511917512</v>
       </c>
       <c r="H14">
-        <v>0.0207201375968055</v>
+        <v>0.008536532536532537</v>
       </c>
       <c r="I14">
-        <v>0.02511686980467479</v>
+        <v>0.002276042276042276</v>
       </c>
       <c r="J14">
-        <v>-0.0005100817339697825</v>
+        <v>0.03768333322412549</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.01453519670940787</v>
+        <v>-0.01582796782796783</v>
       </c>
       <c r="E15">
-        <v>0.008239000457560017</v>
+        <v>-0.03454244254244254</v>
       </c>
       <c r="F15">
-        <v>-0.003166768542670742</v>
+        <v>0.06554944154944156</v>
       </c>
       <c r="H15">
-        <v>0.002036638353465534</v>
+        <v>-0.05822072222072223</v>
       </c>
       <c r="I15">
-        <v>0.003835622073424882</v>
+        <v>-0.06354027954027953</v>
       </c>
       <c r="J15">
-        <v>0.00255185825175936</v>
+        <v>0.0104322665472174</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.005309955860398234</v>
+        <v>-0.04641826641826642</v>
       </c>
       <c r="E16">
-        <v>-0.02103744487349779</v>
+        <v>-0.04329402729402729</v>
       </c>
       <c r="F16">
-        <v>-0.02111889665275586</v>
+        <v>0.01197364797364798</v>
       </c>
       <c r="H16">
-        <v>0.02683284952131398</v>
+        <v>0.0008034608034608035</v>
       </c>
       <c r="I16">
-        <v>0.02279120855964833</v>
+        <v>-0.009078741078741079</v>
       </c>
       <c r="J16">
-        <v>-0.01377416873392978</v>
+        <v>0.07670941131240012</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>0.006002090448083616</v>
+        <v>0.03646461646461646</v>
       </c>
       <c r="E17">
-        <v>0.01878996132759845</v>
+        <v>-0.01070827070827071</v>
       </c>
       <c r="F17">
-        <v>-0.04778840197553607</v>
+        <v>-0.04543846543846543</v>
       </c>
       <c r="H17">
-        <v>0.0411947475997899</v>
+        <v>0.001391053391053391</v>
       </c>
       <c r="I17">
-        <v>0.04670276855611073</v>
+        <v>0.001922293922293922</v>
       </c>
       <c r="J17">
-        <v>0.002587143452201412</v>
+        <v>0.04806647342139139</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.02663246429729857</v>
+        <v>0.02955667755667757</v>
       </c>
       <c r="E18">
-        <v>0.0156903449796138</v>
+        <v>0.9999962079962079</v>
       </c>
       <c r="F18">
-        <v>-0.01690512134820485</v>
+        <v>-0.2485104565104566</v>
       </c>
       <c r="H18">
-        <v>0.01337277960691118</v>
+        <v>-0.01605245205245205</v>
       </c>
       <c r="I18">
-        <v>0.01622840628113625</v>
+        <v>0.2044309804309805</v>
       </c>
       <c r="J18">
-        <v>0.02388859927857544</v>
+        <v>-0.003509900858782483</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.01085084203403368</v>
+        <v>-0.1362950082950083</v>
       </c>
       <c r="E19">
-        <v>0.0005845856873834275</v>
+        <v>-0.02503814503814504</v>
       </c>
       <c r="F19">
-        <v>-0.003659187218367488</v>
+        <v>0.009814413814413815</v>
       </c>
       <c r="H19">
-        <v>0.002063762866550514</v>
+        <v>-0.005942513942513943</v>
       </c>
       <c r="I19">
-        <v>0.003863478394539135</v>
+        <v>-0.01207676407676408</v>
       </c>
       <c r="J19">
-        <v>0.004227246625160694</v>
+        <v>-0.05990334764380797</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>0.009232484049299361</v>
+        <v>0.03772921372921374</v>
       </c>
       <c r="E20">
-        <v>-0.005458068314322732</v>
+        <v>-0.02532253332253332</v>
       </c>
       <c r="F20">
-        <v>0.001656151170246047</v>
+        <v>-0.007780099780099781</v>
       </c>
       <c r="H20">
-        <v>-0.0005838196073527842</v>
+        <v>0.01528855528855529</v>
       </c>
       <c r="I20">
-        <v>-0.001004246920169877</v>
+        <v>0.01021394221394222</v>
       </c>
       <c r="J20">
-        <v>-0.007931675869542396</v>
+        <v>0.00237202626492977</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>0.02367959374718374</v>
+        <v>-0.01622202422202422</v>
       </c>
       <c r="E21">
-        <v>0.006257330458293217</v>
+        <v>0.05032194232194233</v>
       </c>
       <c r="F21">
-        <v>-0.02467313042692521</v>
+        <v>-0.00677890277890278</v>
       </c>
       <c r="H21">
-        <v>0.02410244486809779</v>
+        <v>-0.006392730392730393</v>
       </c>
       <c r="I21">
-        <v>0.02428224865128994</v>
+        <v>0.004638220638220639</v>
       </c>
       <c r="J21">
-        <v>-0.01621114380055195</v>
+        <v>0.03955213416468962</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.01217714621508585</v>
+        <v>-0.04204276204276204</v>
       </c>
       <c r="E22">
-        <v>-0.001810838952433558</v>
+        <v>0.01369310569310569</v>
       </c>
       <c r="F22">
-        <v>0.001723502660940106</v>
+        <v>-0.02215040215040215</v>
       </c>
       <c r="H22">
-        <v>-0.0007684522867380914</v>
+        <v>0.0211995691995692</v>
       </c>
       <c r="I22">
-        <v>-0.0009532179261287168</v>
+        <v>0.02262506262506263</v>
       </c>
       <c r="J22">
-        <v>-0.005064764741794004</v>
+        <v>-0.01606435246373224</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1075,32 +1090,206 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.008212455880498234</v>
+        <v>-0.00171994971994972</v>
       </c>
       <c r="E23">
-        <v>0.00278359076734363</v>
+        <v>0.02661846261846262</v>
       </c>
       <c r="F23">
-        <v>0.009292844627713783</v>
+        <v>-0.02673075873075873</v>
       </c>
       <c r="H23">
-        <v>-0.008494314963772598</v>
+        <v>0.01831840231840232</v>
       </c>
       <c r="I23">
-        <v>-0.01008051323522053</v>
+        <v>0.02420587220587221</v>
       </c>
       <c r="J23">
-        <v>0.01352005997434009</v>
+        <v>0.002057788165313365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>-0.05941297141297141</v>
+      </c>
+      <c r="E24">
+        <v>-0.01913898713898714</v>
+      </c>
+      <c r="F24">
+        <v>0.05071770271770272</v>
+      </c>
+      <c r="H24">
+        <v>-0.04826304026304026</v>
+      </c>
+      <c r="I24">
+        <v>-0.05215466815466815</v>
+      </c>
+      <c r="J24">
+        <v>0.02289902212299082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>-0.01119484719484719</v>
+      </c>
+      <c r="E25">
+        <v>-0.01535283935283936</v>
+      </c>
+      <c r="F25">
+        <v>0.02028609228609229</v>
+      </c>
+      <c r="H25">
+        <v>-0.01336491736491737</v>
+      </c>
+      <c r="I25">
+        <v>-0.01586763986763987</v>
+      </c>
+      <c r="J25">
+        <v>-0.02516321181629988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0.07816675816675818</v>
+      </c>
+      <c r="E26">
+        <v>-0.008667824667824668</v>
+      </c>
+      <c r="F26">
+        <v>0.0006836886836886837</v>
+      </c>
+      <c r="H26">
+        <v>0.002503634503634504</v>
+      </c>
+      <c r="I26">
+        <v>0.001016713016713017</v>
+      </c>
+      <c r="J26">
+        <v>-0.05209387933320162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>-0.001273981273981274</v>
+      </c>
+      <c r="E27">
+        <v>-0.03613563613563613</v>
+      </c>
+      <c r="F27">
+        <v>0.02002238002238002</v>
+      </c>
+      <c r="H27">
+        <v>-0.01177103977103977</v>
+      </c>
+      <c r="I27">
+        <v>-0.01690915690915691</v>
+      </c>
+      <c r="J27">
+        <v>-0.01758809198793372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>0.004481872481872482</v>
+      </c>
+      <c r="E28">
+        <v>0.01147054747054747</v>
+      </c>
+      <c r="F28">
+        <v>0.02481290481290482</v>
+      </c>
+      <c r="H28">
+        <v>-0.02956945756945757</v>
+      </c>
+      <c r="I28">
+        <v>-0.02806369606369606</v>
+      </c>
+      <c r="J28">
+        <v>-0.02872809383388397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>0.007437067437067437</v>
+      </c>
+      <c r="E29">
+        <v>-0.03008037008037008</v>
+      </c>
+      <c r="F29">
+        <v>0.005602121602121602</v>
+      </c>
+      <c r="H29">
+        <v>-0.0005643005643005644</v>
+      </c>
+      <c r="I29">
+        <v>-0.007856875856875858</v>
+      </c>
+      <c r="J29">
+        <v>0.0310090192731061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>-0.006611106611106611</v>
+      </c>
+      <c r="E30">
+        <v>0.0076985236985237</v>
+      </c>
+      <c r="F30">
+        <v>-0.02701040701040701</v>
+      </c>
+      <c r="H30">
+        <v>0.02384813984813985</v>
+      </c>
+      <c r="I30">
+        <v>0.02671746271746272</v>
+      </c>
+      <c r="J30">
+        <v>-0.04849618036139617</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -620,22 +620,22 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.04660037860037861</v>
+        <v>-0.04655698655698656</v>
       </c>
       <c r="E4">
-        <v>0.04814836814836815</v>
+        <v>0.04806985206985207</v>
       </c>
       <c r="F4">
-        <v>-0.03184008784008784</v>
+        <v>-0.03013824613824614</v>
       </c>
       <c r="H4">
-        <v>0.01999341199341199</v>
+        <v>0.01998414798414799</v>
       </c>
       <c r="I4">
-        <v>0.02927555327555328</v>
+        <v>0.02838746838746839</v>
       </c>
       <c r="J4">
-        <v>0.005216214340192776</v>
+        <v>0.01292336143859856</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -644,22 +644,22 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.01744488544488544</v>
+        <v>-0.01682684882684883</v>
       </c>
       <c r="E5">
-        <v>-0.03236231636231637</v>
+        <v>-0.03238210438210438</v>
       </c>
       <c r="F5">
-        <v>0.00459020859020859</v>
+        <v>0.003308271308271308</v>
       </c>
       <c r="H5">
-        <v>0.0001692601692601693</v>
+        <v>0.0001624801624801625</v>
       </c>
       <c r="I5">
-        <v>-0.005886209886209887</v>
+        <v>-0.00532930132930133</v>
       </c>
       <c r="J5">
-        <v>-0.0116632175894564</v>
+        <v>-0.01736331624972735</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -668,22 +668,22 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.05373526173526175</v>
+        <v>0.05287172887172887</v>
       </c>
       <c r="E6">
-        <v>0.02668350268350269</v>
+        <v>0.02663609063609064</v>
       </c>
       <c r="F6">
-        <v>-0.02636527436527437</v>
+        <v>-0.02565483765483766</v>
       </c>
       <c r="H6">
-        <v>0.02171052971052971</v>
+        <v>0.02168354168354168</v>
       </c>
       <c r="I6">
-        <v>0.02856575256575257</v>
+        <v>0.02813134013134014</v>
       </c>
       <c r="J6">
-        <v>-0.01643892812163158</v>
+        <v>0.04710818657931964</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -692,22 +692,22 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-0.04066158466158466</v>
+        <v>-0.03942864342864343</v>
       </c>
       <c r="E7">
-        <v>0.04567797367797368</v>
+        <v>0.04562620562620563</v>
       </c>
       <c r="F7">
-        <v>0.04757169557169558</v>
+        <v>0.05062473862473862</v>
       </c>
       <c r="H7">
-        <v>-0.06304071904071905</v>
+        <v>-0.06302514302514303</v>
       </c>
       <c r="I7">
-        <v>-0.05188736788736789</v>
+        <v>-0.05220785220785221</v>
       </c>
       <c r="J7">
-        <v>-0.04187123295761444</v>
+        <v>-0.02162013179669534</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -716,22 +716,22 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1192478392478393</v>
+        <v>0.1215826575826576</v>
       </c>
       <c r="E8">
-        <v>-0.01432170232170232</v>
+        <v>-0.01467600267600268</v>
       </c>
       <c r="F8">
-        <v>-0.9620984420984422</v>
+        <v>-0.9730307410307411</v>
       </c>
       <c r="H8">
-        <v>0.9999999879999882</v>
+        <v>0.9999999519999522</v>
       </c>
       <c r="I8">
-        <v>0.9744730584730585</v>
+        <v>0.977944025944026</v>
       </c>
       <c r="J8">
-        <v>-0.02660993208069475</v>
+        <v>0.01299378058291321</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -740,22 +740,22 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.009958257958257959</v>
+        <v>0.009787509787509788</v>
       </c>
       <c r="E9">
-        <v>-0.009452217452217452</v>
+        <v>-0.009481605481605482</v>
       </c>
       <c r="F9">
-        <v>-0.02722975522975523</v>
+        <v>-0.02872835272835273</v>
       </c>
       <c r="H9">
-        <v>0.03406724206724207</v>
+        <v>0.03405706605706606</v>
       </c>
       <c r="I9">
-        <v>0.03017574617574618</v>
+        <v>0.03047064647064647</v>
       </c>
       <c r="J9">
-        <v>0.06075327373101429</v>
+        <v>-0.007627730737777297</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -764,22 +764,22 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.001412029412029412</v>
+        <v>-0.003415095415095415</v>
       </c>
       <c r="E10">
-        <v>-0.07043482643482644</v>
+        <v>-0.07045330645330647</v>
       </c>
       <c r="F10">
-        <v>0.0945033945033945</v>
+        <v>0.09266422466422468</v>
       </c>
       <c r="H10">
-        <v>-0.07774355374355375</v>
+        <v>-0.07773310173310173</v>
       </c>
       <c r="I10">
-        <v>-0.09023705423705423</v>
+        <v>-0.0893987573987574</v>
       </c>
       <c r="J10">
-        <v>-0.002918144819671102</v>
+        <v>-0.02972945029927657</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -788,22 +788,22 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.04223759423759424</v>
+        <v>-0.04214269814269815</v>
       </c>
       <c r="E11">
-        <v>-0.02775066375066376</v>
+        <v>-0.02768735168735169</v>
       </c>
       <c r="F11">
-        <v>0.01621798021798022</v>
+        <v>0.01418555018555019</v>
       </c>
       <c r="H11">
-        <v>-0.008299496299496299</v>
+        <v>-0.008303348303348303</v>
       </c>
       <c r="I11">
-        <v>-0.01304689304689305</v>
+        <v>-0.01283276483276483</v>
       </c>
       <c r="J11">
-        <v>-0.0347014160249794</v>
+        <v>-0.03248386000406545</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -812,22 +812,22 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-0.03681943281943282</v>
+        <v>-0.0360958320958321</v>
       </c>
       <c r="E12">
-        <v>0.05713671313671313</v>
+        <v>0.05713427713427714</v>
       </c>
       <c r="F12">
-        <v>0.03387094587094588</v>
+        <v>0.0370950970950971</v>
       </c>
       <c r="H12">
-        <v>-0.05202722802722803</v>
+        <v>-0.05202520002520003</v>
       </c>
       <c r="I12">
-        <v>-0.03650521250521251</v>
+        <v>-0.03755493755493756</v>
       </c>
       <c r="J12">
-        <v>0.01015733673348077</v>
+        <v>-0.05277808646213688</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -836,22 +836,22 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.0161988881988882</v>
+        <v>0.01601404001404002</v>
       </c>
       <c r="E13">
-        <v>0.01318005718005718</v>
+        <v>0.01317334917334917</v>
       </c>
       <c r="F13">
-        <v>-0.01965318765318766</v>
+        <v>-0.01906300306300306</v>
       </c>
       <c r="H13">
-        <v>0.01691886491886492</v>
+        <v>0.01691334491334492</v>
       </c>
       <c r="I13">
-        <v>0.01803684603684604</v>
+        <v>0.01813471813471814</v>
       </c>
       <c r="J13">
-        <v>-0.002406602664272236</v>
+        <v>-0.05337702940873704</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -862,22 +862,22 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.9701300141300142</v>
+        <v>0.970914334914335</v>
       </c>
       <c r="E14">
-        <v>-0.03344753744753745</v>
+        <v>-0.0334987054987055</v>
       </c>
       <c r="F14">
-        <v>-0.001511917511917512</v>
+        <v>-0.002647982647982648</v>
       </c>
       <c r="H14">
-        <v>0.008536532536532537</v>
+        <v>0.008541884541884542</v>
       </c>
       <c r="I14">
-        <v>0.002276042276042276</v>
+        <v>0.002840966840966841</v>
       </c>
       <c r="J14">
-        <v>0.03768333322412549</v>
+        <v>-0.01212531602619959</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -888,22 +888,22 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.01582796782796783</v>
+        <v>-0.01734564534564535</v>
       </c>
       <c r="E15">
-        <v>-0.03454244254244254</v>
+        <v>-0.03452320652320653</v>
       </c>
       <c r="F15">
-        <v>0.06554944154944156</v>
+        <v>0.0651019851019851</v>
       </c>
       <c r="H15">
-        <v>-0.05822072222072223</v>
+        <v>-0.0581998181998182</v>
       </c>
       <c r="I15">
-        <v>-0.06354027954027953</v>
+        <v>-0.06332244332244331</v>
       </c>
       <c r="J15">
-        <v>0.0104322665472174</v>
+        <v>0.004127691653189105</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -914,22 +914,22 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.04641826641826642</v>
+        <v>-0.0473929553929554</v>
       </c>
       <c r="E16">
-        <v>-0.04329402729402729</v>
+        <v>-0.04332904332904333</v>
       </c>
       <c r="F16">
-        <v>0.01197364797364798</v>
+        <v>0.009884145884145884</v>
       </c>
       <c r="H16">
-        <v>0.0008034608034608035</v>
+        <v>0.0008129048129048129</v>
       </c>
       <c r="I16">
-        <v>-0.009078741078741079</v>
+        <v>-0.008551280551280552</v>
       </c>
       <c r="J16">
-        <v>0.07670941131240012</v>
+        <v>0.05352473579697468</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -940,22 +940,22 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.03646461646461646</v>
+        <v>0.05205349605349606</v>
       </c>
       <c r="E17">
-        <v>-0.01070827070827071</v>
+        <v>-0.0106973626973627</v>
       </c>
       <c r="F17">
-        <v>-0.04543846543846543</v>
+        <v>-0.04485327285327285</v>
       </c>
       <c r="H17">
-        <v>0.001391053391053391</v>
+        <v>0.001397125397125397</v>
       </c>
       <c r="I17">
-        <v>0.001922293922293922</v>
+        <v>0.001472761472761473</v>
       </c>
       <c r="J17">
-        <v>0.04806647342139139</v>
+        <v>-0.00364890423831336</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -964,22 +964,22 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.02955667755667757</v>
+        <v>0.03261364461364462</v>
       </c>
       <c r="E18">
-        <v>0.9999962079962079</v>
+        <v>0.999997251997252</v>
       </c>
       <c r="F18">
-        <v>-0.2485104565104566</v>
+        <v>-0.2068779148779149</v>
       </c>
       <c r="H18">
-        <v>-0.01605245205245205</v>
+        <v>-0.01603470403470404</v>
       </c>
       <c r="I18">
-        <v>0.2044309804309805</v>
+        <v>0.1891953571953572</v>
       </c>
       <c r="J18">
-        <v>-0.003509900858782483</v>
+        <v>0.009330271071267536</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -988,22 +988,22 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.1362950082950083</v>
+        <v>-0.1251694491694492</v>
       </c>
       <c r="E19">
-        <v>-0.02503814503814504</v>
+        <v>-0.02503900903900904</v>
       </c>
       <c r="F19">
-        <v>0.009814413814413815</v>
+        <v>0.00827828027828028</v>
       </c>
       <c r="H19">
-        <v>-0.005942513942513943</v>
+        <v>-0.005946389946389947</v>
       </c>
       <c r="I19">
-        <v>-0.01207676407676408</v>
+        <v>-0.01142872742872743</v>
       </c>
       <c r="J19">
-        <v>-0.05990334764380797</v>
+        <v>0.003169543475930768</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,22 +1014,22 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.03772921372921374</v>
+        <v>0.03708757308757309</v>
       </c>
       <c r="E20">
-        <v>-0.02532253332253332</v>
+        <v>-0.02534320934320934</v>
       </c>
       <c r="F20">
-        <v>-0.007780099780099781</v>
+        <v>-0.009593745593745595</v>
       </c>
       <c r="H20">
-        <v>0.01528855528855529</v>
+        <v>0.01529091929091929</v>
       </c>
       <c r="I20">
-        <v>0.01021394221394222</v>
+        <v>0.01041791841791842</v>
       </c>
       <c r="J20">
-        <v>0.00237202626492977</v>
+        <v>-0.0138250741154724</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1040,22 +1040,22 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.01622202422202422</v>
+        <v>-0.01623551223551224</v>
       </c>
       <c r="E21">
-        <v>0.05032194232194233</v>
+        <v>0.05035229035229035</v>
       </c>
       <c r="F21">
-        <v>-0.00677890277890278</v>
+        <v>-0.004832224832224832</v>
       </c>
       <c r="H21">
-        <v>-0.006392730392730393</v>
+        <v>-0.006391722391722393</v>
       </c>
       <c r="I21">
-        <v>0.004638220638220639</v>
+        <v>0.003907131907131907</v>
       </c>
       <c r="J21">
-        <v>0.03955213416468962</v>
+        <v>-0.01196824898550805</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1066,22 +1066,22 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.04204276204276204</v>
+        <v>-0.04250458250458251</v>
       </c>
       <c r="E22">
-        <v>0.01369310569310569</v>
+        <v>0.01367227367227367</v>
       </c>
       <c r="F22">
-        <v>-0.02215040215040215</v>
+        <v>-0.02214704214704215</v>
       </c>
       <c r="H22">
-        <v>0.0211995691995692</v>
+        <v>0.02121404121404121</v>
       </c>
       <c r="I22">
-        <v>0.02262506262506263</v>
+        <v>0.02280578280578281</v>
       </c>
       <c r="J22">
-        <v>-0.01606435246373224</v>
+        <v>-0.005227571334140051</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1090,22 +1090,22 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.00171994971994972</v>
+        <v>-0.001024477024477025</v>
       </c>
       <c r="E23">
-        <v>0.02661846261846262</v>
+        <v>0.02661149061149061</v>
       </c>
       <c r="F23">
-        <v>-0.02673075873075873</v>
+        <v>-0.02564215364215364</v>
       </c>
       <c r="H23">
-        <v>0.01831840231840232</v>
+        <v>0.01831504231504232</v>
       </c>
       <c r="I23">
-        <v>0.02420587220587221</v>
+        <v>0.02353199953199953</v>
       </c>
       <c r="J23">
-        <v>0.002057788165313365</v>
+        <v>0.02966853061786483</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1116,22 +1116,22 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>-0.05941297141297141</v>
+        <v>-0.0587947427947428</v>
       </c>
       <c r="E24">
-        <v>-0.01913898713898714</v>
+        <v>-0.0191000111000111</v>
       </c>
       <c r="F24">
-        <v>0.05071770271770272</v>
+        <v>0.05010708210708211</v>
       </c>
       <c r="H24">
-        <v>-0.04826304026304026</v>
+        <v>-0.04824052824052825</v>
       </c>
       <c r="I24">
-        <v>-0.05215466815466815</v>
+        <v>-0.05177709977709978</v>
       </c>
       <c r="J24">
-        <v>0.02289902212299082</v>
+        <v>0.0224439235297702</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1142,22 +1142,22 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>-0.01119484719484719</v>
+        <v>-0.0113996993996994</v>
       </c>
       <c r="E25">
-        <v>-0.01535283935283936</v>
+        <v>-0.01535139935139935</v>
       </c>
       <c r="F25">
-        <v>0.02028609228609229</v>
+        <v>0.01852995052995053</v>
       </c>
       <c r="H25">
-        <v>-0.01336491736491737</v>
+        <v>-0.01335414135414136</v>
       </c>
       <c r="I25">
-        <v>-0.01586763986763987</v>
+        <v>-0.01576635976635977</v>
       </c>
       <c r="J25">
-        <v>-0.02516321181629988</v>
+        <v>-0.06831915948941814</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1166,22 +1166,22 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.07816675816675818</v>
+        <v>0.07942947142947143</v>
       </c>
       <c r="E26">
-        <v>-0.008667824667824668</v>
+        <v>-0.008639456639456639</v>
       </c>
       <c r="F26">
-        <v>0.0006836886836886837</v>
+        <v>-0.0001336441336441336</v>
       </c>
       <c r="H26">
-        <v>0.002503634503634504</v>
+        <v>0.002500322500322501</v>
       </c>
       <c r="I26">
-        <v>0.001016713016713017</v>
+        <v>0.001316821316821317</v>
       </c>
       <c r="J26">
-        <v>-0.05209387933320162</v>
+        <v>-0.03427093590101261</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1190,22 +1190,22 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>-0.001273981273981274</v>
+        <v>-0.002706446706446707</v>
       </c>
       <c r="E27">
-        <v>-0.03613563613563613</v>
+        <v>-0.03613506013506013</v>
       </c>
       <c r="F27">
-        <v>0.02002238002238002</v>
+        <v>0.01916663516663517</v>
       </c>
       <c r="H27">
-        <v>-0.01177103977103977</v>
+        <v>-0.01176383976383976</v>
       </c>
       <c r="I27">
-        <v>-0.01690915690915691</v>
+        <v>-0.01675240075240075</v>
       </c>
       <c r="J27">
-        <v>-0.01758809198793372</v>
+        <v>-0.08542395636592656</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1214,22 +1214,22 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.004481872481872482</v>
+        <v>0.004080028080028081</v>
       </c>
       <c r="E28">
-        <v>0.01147054747054747</v>
+        <v>0.01147385947385948</v>
       </c>
       <c r="F28">
-        <v>0.02481290481290482</v>
+        <v>0.02492960492960493</v>
       </c>
       <c r="H28">
-        <v>-0.02956945756945757</v>
+        <v>-0.02956066156066156</v>
       </c>
       <c r="I28">
-        <v>-0.02806369606369606</v>
+        <v>-0.02799691599691599</v>
       </c>
       <c r="J28">
-        <v>-0.02872809383388397</v>
+        <v>0.0194140535417443</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1240,22 +1240,22 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>0.007437067437067437</v>
+        <v>0.009063609063609064</v>
       </c>
       <c r="E29">
-        <v>-0.03008037008037008</v>
+        <v>-0.03006383406383406</v>
       </c>
       <c r="F29">
-        <v>0.005602121602121602</v>
+        <v>0.003620703620703621</v>
       </c>
       <c r="H29">
-        <v>-0.0005643005643005644</v>
+        <v>-0.0005543405543405543</v>
       </c>
       <c r="I29">
-        <v>-0.007856875856875858</v>
+        <v>-0.00714010314010314</v>
       </c>
       <c r="J29">
-        <v>0.0310090192731061</v>
+        <v>-0.005415363765961682</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1264,22 +1264,22 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>-0.006611106611106611</v>
+        <v>-0.006576138576138577</v>
       </c>
       <c r="E30">
-        <v>0.0076985236985237</v>
+        <v>0.007657975657975658</v>
       </c>
       <c r="F30">
-        <v>-0.02701040701040701</v>
+        <v>-0.0272027072027072</v>
       </c>
       <c r="H30">
-        <v>0.02384813984813985</v>
+        <v>0.02383625983625984</v>
       </c>
       <c r="I30">
-        <v>0.02671746271746272</v>
+        <v>0.02638017838017838</v>
       </c>
       <c r="J30">
-        <v>-0.04849618036139617</v>
+        <v>-0.04162063534462745</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -620,13 +620,13 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.04655698655698656</v>
+        <v>-0.04681225081225081</v>
       </c>
       <c r="E4">
         <v>0.04806985206985207</v>
       </c>
       <c r="F4">
-        <v>-0.03013824613824614</v>
+        <v>-0.03258542058542059</v>
       </c>
       <c r="H4">
         <v>0.01998414798414799</v>
@@ -635,7 +635,7 @@
         <v>0.02838746838746839</v>
       </c>
       <c r="J4">
-        <v>0.01292336143859856</v>
+        <v>-0.03999363696199659</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -644,13 +644,13 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.01682684882684883</v>
+        <v>-0.01776727776727777</v>
       </c>
       <c r="E5">
         <v>-0.03238210438210438</v>
       </c>
       <c r="F5">
-        <v>0.003308271308271308</v>
+        <v>0.004708096708096708</v>
       </c>
       <c r="H5">
         <v>0.0001624801624801625</v>
@@ -659,7 +659,7 @@
         <v>-0.00532930132930133</v>
       </c>
       <c r="J5">
-        <v>-0.01736331624972735</v>
+        <v>-0.02702230476969367</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -668,13 +668,13 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.05287172887172887</v>
+        <v>0.0528993168993169</v>
       </c>
       <c r="E6">
         <v>0.02663609063609064</v>
       </c>
       <c r="F6">
-        <v>-0.02565483765483766</v>
+        <v>-0.02711683511683512</v>
       </c>
       <c r="H6">
         <v>0.02168354168354168</v>
@@ -683,7 +683,7 @@
         <v>0.02813134013134014</v>
       </c>
       <c r="J6">
-        <v>0.04710818657931964</v>
+        <v>0.02122945500545908</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -692,13 +692,13 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-0.03942864342864343</v>
+        <v>-0.04047368847368848</v>
       </c>
       <c r="E7">
         <v>0.04562620562620563</v>
       </c>
       <c r="F7">
-        <v>0.05062473862473862</v>
+        <v>0.04658798258798259</v>
       </c>
       <c r="H7">
         <v>-0.06302514302514303</v>
@@ -707,7 +707,7 @@
         <v>-0.05220785220785221</v>
       </c>
       <c r="J7">
-        <v>-0.02162013179669534</v>
+        <v>-0.04437582155106347</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -716,13 +716,13 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1215826575826576</v>
+        <v>0.1196498996498997</v>
       </c>
       <c r="E8">
         <v>-0.01467600267600268</v>
       </c>
       <c r="F8">
-        <v>-0.9730307410307411</v>
+        <v>-0.9558177198177198</v>
       </c>
       <c r="H8">
         <v>0.9999999519999522</v>
@@ -731,7 +731,7 @@
         <v>0.977944025944026</v>
       </c>
       <c r="J8">
-        <v>0.01299378058291321</v>
+        <v>-0.04291538557079922</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -740,13 +740,13 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.009787509787509788</v>
+        <v>0.00997925797925798</v>
       </c>
       <c r="E9">
         <v>-0.009481605481605482</v>
       </c>
       <c r="F9">
-        <v>-0.02872835272835273</v>
+        <v>-0.02694179094179095</v>
       </c>
       <c r="H9">
         <v>0.03405706605706606</v>
@@ -755,7 +755,7 @@
         <v>0.03047064647064647</v>
       </c>
       <c r="J9">
-        <v>-0.007627730737777297</v>
+        <v>0.008478131507756503</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -764,13 +764,13 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.003415095415095415</v>
+        <v>-0.002148398148398149</v>
       </c>
       <c r="E10">
         <v>-0.07045330645330647</v>
       </c>
       <c r="F10">
-        <v>0.09266422466422468</v>
+        <v>0.09525494325494327</v>
       </c>
       <c r="H10">
         <v>-0.07773310173310173</v>
@@ -779,7 +779,7 @@
         <v>-0.0893987573987574</v>
       </c>
       <c r="J10">
-        <v>-0.02972945029927657</v>
+        <v>0.01557864627939118</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -788,13 +788,13 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.04214269814269815</v>
+        <v>-0.04208250608250608</v>
       </c>
       <c r="E11">
         <v>-0.02768735168735169</v>
       </c>
       <c r="F11">
-        <v>0.01418555018555019</v>
+        <v>0.01659006459006459</v>
       </c>
       <c r="H11">
         <v>-0.008303348303348303</v>
@@ -803,7 +803,7 @@
         <v>-0.01283276483276483</v>
       </c>
       <c r="J11">
-        <v>-0.03248386000406545</v>
+        <v>0.03063431181887364</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -812,13 +812,13 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-0.0360958320958321</v>
+        <v>-0.0360972960972961</v>
       </c>
       <c r="E12">
         <v>0.05713427713427714</v>
       </c>
       <c r="F12">
-        <v>0.0370950970950971</v>
+        <v>0.03212120012120012</v>
       </c>
       <c r="H12">
         <v>-0.05202520002520003</v>
@@ -827,7 +827,7 @@
         <v>-0.03755493755493756</v>
       </c>
       <c r="J12">
-        <v>-0.05277808646213688</v>
+        <v>-0.01511407072963495</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -836,13 +836,13 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.01601404001404002</v>
+        <v>0.01653158853158853</v>
       </c>
       <c r="E13">
         <v>0.01317334917334917</v>
       </c>
       <c r="F13">
-        <v>-0.01906300306300306</v>
+        <v>-0.01983948783948784</v>
       </c>
       <c r="H13">
         <v>0.01691334491334492</v>
@@ -851,7 +851,7 @@
         <v>0.01813471813471814</v>
       </c>
       <c r="J13">
-        <v>-0.05337702940873704</v>
+        <v>-0.02930390199186858</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -862,13 +862,13 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.970914334914335</v>
+        <v>0.9727860607860609</v>
       </c>
       <c r="E14">
         <v>-0.0334987054987055</v>
       </c>
       <c r="F14">
-        <v>-0.002647982647982648</v>
+        <v>-0.0005498045498045497</v>
       </c>
       <c r="H14">
         <v>0.008541884541884542</v>
@@ -877,7 +877,7 @@
         <v>0.002840966840966841</v>
       </c>
       <c r="J14">
-        <v>-0.01212531602619959</v>
+        <v>-0.002869221765638849</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -888,13 +888,13 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.01734564534564535</v>
+        <v>-0.01671580071580072</v>
       </c>
       <c r="E15">
         <v>-0.03452320652320653</v>
       </c>
       <c r="F15">
-        <v>0.0651019851019851</v>
+        <v>0.0662937422937423</v>
       </c>
       <c r="H15">
         <v>-0.0581998181998182</v>
@@ -903,7 +903,7 @@
         <v>-0.06332244332244331</v>
       </c>
       <c r="J15">
-        <v>0.004127691653189105</v>
+        <v>0.01012214724372368</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -914,13 +914,13 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.0473929553929554</v>
+        <v>-0.04701887901887902</v>
       </c>
       <c r="E16">
         <v>-0.04332904332904333</v>
       </c>
       <c r="F16">
-        <v>0.009884145884145884</v>
+        <v>0.0128945648945649</v>
       </c>
       <c r="H16">
         <v>0.0008129048129048129</v>
@@ -929,7 +929,7 @@
         <v>-0.008551280551280552</v>
       </c>
       <c r="J16">
-        <v>0.05352473579697468</v>
+        <v>-0.05088534328826314</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -940,13 +940,13 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.05205349605349606</v>
+        <v>0.03777682977682978</v>
       </c>
       <c r="E17">
         <v>-0.0106973626973627</v>
       </c>
       <c r="F17">
-        <v>-0.04485327285327285</v>
+        <v>-0.04381876381876382</v>
       </c>
       <c r="H17">
         <v>0.001397125397125397</v>
@@ -955,7 +955,7 @@
         <v>0.001472761472761473</v>
       </c>
       <c r="J17">
-        <v>-0.00364890423831336</v>
+        <v>-0.01051709530453076</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -964,13 +964,13 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03261364461364462</v>
+        <v>0.030999750999751</v>
       </c>
       <c r="E18">
         <v>0.999997251997252</v>
       </c>
       <c r="F18">
-        <v>-0.2068779148779149</v>
+        <v>-0.2702212982212983</v>
       </c>
       <c r="H18">
         <v>-0.01603470403470404</v>
@@ -979,7 +979,7 @@
         <v>0.1891953571953572</v>
       </c>
       <c r="J18">
-        <v>0.009330271071267536</v>
+        <v>-0.06997621482903184</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -988,13 +988,13 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.1251694491694492</v>
+        <v>-0.1222910062910063</v>
       </c>
       <c r="E19">
         <v>-0.02503900903900904</v>
       </c>
       <c r="F19">
-        <v>0.00827828027828028</v>
+        <v>0.01090595890595891</v>
       </c>
       <c r="H19">
         <v>-0.005946389946389947</v>
@@ -1003,7 +1003,7 @@
         <v>-0.01142872742872743</v>
       </c>
       <c r="J19">
-        <v>0.003169543475930768</v>
+        <v>-0.01079894372909723</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,13 +1014,13 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.03708757308757309</v>
+        <v>0.0377007257007257</v>
       </c>
       <c r="E20">
         <v>-0.02534320934320934</v>
       </c>
       <c r="F20">
-        <v>-0.009593745593745595</v>
+        <v>-0.006927858927858928</v>
       </c>
       <c r="H20">
         <v>0.01529091929091929</v>
@@ -1029,7 +1029,7 @@
         <v>0.01041791841791842</v>
       </c>
       <c r="J20">
-        <v>-0.0138250741154724</v>
+        <v>-0.03938121408036777</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1040,13 +1040,13 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.01623551223551224</v>
+        <v>-0.01614551214551214</v>
       </c>
       <c r="E21">
         <v>0.05035229035229035</v>
       </c>
       <c r="F21">
-        <v>-0.004832224832224832</v>
+        <v>-0.007597087597087598</v>
       </c>
       <c r="H21">
         <v>-0.006391722391722393</v>
@@ -1055,7 +1055,7 @@
         <v>0.003907131907131907</v>
       </c>
       <c r="J21">
-        <v>-0.01196824898550805</v>
+        <v>-0.02024206083568046</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1066,13 +1066,13 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.04250458250458251</v>
+        <v>-0.04241255441255441</v>
       </c>
       <c r="E22">
         <v>0.01367227367227367</v>
       </c>
       <c r="F22">
-        <v>-0.02214704214704215</v>
+        <v>-0.02205343005343005</v>
       </c>
       <c r="H22">
         <v>0.02121404121404121</v>
@@ -1081,7 +1081,7 @@
         <v>0.02280578280578281</v>
       </c>
       <c r="J22">
-        <v>-0.005227571334140051</v>
+        <v>0.01415405080288144</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1090,13 +1090,13 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.001024477024477025</v>
+        <v>-0.001542541542541543</v>
       </c>
       <c r="E23">
         <v>0.02661149061149061</v>
       </c>
       <c r="F23">
-        <v>-0.02564215364215364</v>
+        <v>-0.02738942738942739</v>
       </c>
       <c r="H23">
         <v>0.01831504231504232</v>
@@ -1105,7 +1105,7 @@
         <v>0.02353199953199953</v>
       </c>
       <c r="J23">
-        <v>0.02966853061786483</v>
+        <v>-0.04366620479537292</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1116,13 +1116,13 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>-0.0587947427947428</v>
+        <v>-0.05971083571083572</v>
       </c>
       <c r="E24">
         <v>-0.0191000111000111</v>
       </c>
       <c r="F24">
-        <v>0.05010708210708211</v>
+        <v>0.05067939867939868</v>
       </c>
       <c r="H24">
         <v>-0.04824052824052825</v>
@@ -1131,7 +1131,7 @@
         <v>-0.05177709977709978</v>
       </c>
       <c r="J24">
-        <v>0.0224439235297702</v>
+        <v>0.01289424718858361</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1142,13 +1142,13 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>-0.0113996993996994</v>
+        <v>-0.01144401544401544</v>
       </c>
       <c r="E25">
         <v>-0.01535139935139935</v>
       </c>
       <c r="F25">
-        <v>0.01852995052995053</v>
+        <v>0.01994861594861595</v>
       </c>
       <c r="H25">
         <v>-0.01335414135414136</v>
@@ -1157,7 +1157,7 @@
         <v>-0.01576635976635977</v>
       </c>
       <c r="J25">
-        <v>-0.06831915948941814</v>
+        <v>0.03086520055917731</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1166,13 +1166,13 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.07942947142947143</v>
+        <v>0.0794872514872515</v>
       </c>
       <c r="E26">
         <v>-0.008639456639456639</v>
       </c>
       <c r="F26">
-        <v>-0.0001336441336441336</v>
+        <v>0.0006888126888126889</v>
       </c>
       <c r="H26">
         <v>0.002500322500322501</v>
@@ -1181,7 +1181,7 @@
         <v>0.001316821316821317</v>
       </c>
       <c r="J26">
-        <v>-0.03427093590101261</v>
+        <v>-0.01334127776397717</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1190,13 +1190,13 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>-0.002706446706446707</v>
+        <v>-0.001854265854265854</v>
       </c>
       <c r="E27">
         <v>-0.03613506013506013</v>
       </c>
       <c r="F27">
-        <v>0.01916663516663517</v>
+        <v>0.02045398445398446</v>
       </c>
       <c r="H27">
         <v>-0.01176383976383976</v>
@@ -1205,7 +1205,7 @@
         <v>-0.01675240075240075</v>
       </c>
       <c r="J27">
-        <v>-0.08542395636592656</v>
+        <v>0.01711779446667805</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1214,13 +1214,13 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.004080028080028081</v>
+        <v>0.003763299763299764</v>
       </c>
       <c r="E28">
         <v>0.01147385947385948</v>
       </c>
       <c r="F28">
-        <v>0.02492960492960493</v>
+        <v>0.02461588861588862</v>
       </c>
       <c r="H28">
         <v>-0.02956066156066156</v>
@@ -1229,7 +1229,7 @@
         <v>-0.02799691599691599</v>
       </c>
       <c r="J28">
-        <v>0.0194140535417443</v>
+        <v>0.03238084136294953</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1240,13 +1240,13 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>0.009063609063609064</v>
+        <v>0.007794823794823795</v>
       </c>
       <c r="E29">
         <v>-0.03006383406383406</v>
       </c>
       <c r="F29">
-        <v>0.003620703620703621</v>
+        <v>0.007065463065463067</v>
       </c>
       <c r="H29">
         <v>-0.0005543405543405543</v>
@@ -1255,7 +1255,7 @@
         <v>-0.00714010314010314</v>
       </c>
       <c r="J29">
-        <v>-0.005415363765961682</v>
+        <v>0.03466845503423854</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1264,13 +1264,13 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>-0.006576138576138577</v>
+        <v>-0.006987210987210989</v>
       </c>
       <c r="E30">
         <v>0.007657975657975658</v>
       </c>
       <c r="F30">
-        <v>-0.0272027072027072</v>
+        <v>-0.02703381903381903</v>
       </c>
       <c r="H30">
         <v>0.02383625983625984</v>
@@ -1279,7 +1279,7 @@
         <v>0.02638017838017838</v>
       </c>
       <c r="J30">
-        <v>-0.04162063534462745</v>
+        <v>-0.01452329385504836</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Element</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-sugarcane</t>
+    <t>biorefinery</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -82,16 +82,13 @@
     <t>Stream-natural gas</t>
   </si>
   <si>
-    <t>biorefinery</t>
-  </si>
-  <si>
     <t>Stream-crude glycerol</t>
   </si>
   <si>
     <t>Stream-pure glycerine</t>
   </si>
   <si>
-    <t>Stream-cellulase</t>
+    <t>cellulase</t>
   </si>
   <si>
     <t>Pretreatment reactor system</t>
@@ -103,76 +100,82 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>lipidcane</t>
+  </si>
+  <si>
+    <t>lipidsorghum</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse lipid extraction efficiency [%]</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
+    <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
+  </si>
+  <si>
+    <t>Electricity price [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Operating days [day/yr]</t>
+  </si>
+  <si>
+    <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
-    <t>Bagasse lipid extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>Capacity [ton/hr]</t>
-  </si>
-  <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
-  </si>
-  <si>
     <t>TAG to  FFA conversion [% lipid]</t>
-  </si>
-  <si>
-    <t>Price [USD/gal]</t>
-  </si>
-  <si>
-    <t>Price [USD/cf]</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kWh]</t>
-  </si>
-  <si>
-    <t>Operating days [day/yr]</t>
-  </si>
-  <si>
-    <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Price [USD/kg]</t>
-  </si>
-  <si>
-    <t>Cellulase loading [wt. % cellulose]</t>
-  </si>
-  <si>
-    <t>Base cost [million USD]</t>
-  </si>
-  <si>
-    <t>Cane glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Cane xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Glucose to ethanol yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -617,169 +620,177 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>-0.04681225081225081</v>
+        <v>-0.004501072501072501</v>
       </c>
       <c r="E4">
-        <v>0.04806985206985207</v>
+        <v>-0.03305246105246105</v>
       </c>
       <c r="F4">
-        <v>-0.03258542058542059</v>
+        <v>-0.01978691578691579</v>
       </c>
       <c r="H4">
-        <v>0.01998414798414799</v>
+        <v>0.02662152262152262</v>
       </c>
       <c r="I4">
-        <v>0.02838746838746839</v>
+        <v>0.02172424572424573</v>
       </c>
       <c r="J4">
-        <v>-0.03999363696199659</v>
+        <v>0.04141639290816179</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>-0.01776727776727777</v>
+        <v>-0.001867597867597868</v>
       </c>
       <c r="E5">
-        <v>-0.03238210438210438</v>
+        <v>-0.00825990825990826</v>
       </c>
       <c r="F5">
-        <v>0.004708096708096708</v>
+        <v>-0.03042930642930643</v>
       </c>
       <c r="H5">
-        <v>0.0001624801624801625</v>
+        <v>0.03170943170943171</v>
       </c>
       <c r="I5">
-        <v>-0.00532930132930133</v>
+        <v>0.02876791676791677</v>
       </c>
       <c r="J5">
-        <v>-0.02702230476969367</v>
+        <v>0.01510275174469269</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0.0528993168993169</v>
+        <v>0.1346127266127266</v>
       </c>
       <c r="E6">
-        <v>0.02663609063609064</v>
+        <v>-0.04306939906939907</v>
       </c>
       <c r="F6">
-        <v>-0.02711683511683512</v>
+        <v>-0.9661423141423141</v>
       </c>
       <c r="H6">
-        <v>0.02168354168354168</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.02813134013134014</v>
+        <v>0.9742967062967064</v>
       </c>
       <c r="J6">
-        <v>0.02122945500545908</v>
+        <v>-0.0354581624241487</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>-0.04047368847368848</v>
+        <v>0.9674192954192956</v>
       </c>
       <c r="E7">
-        <v>0.04562620562620563</v>
+        <v>0.03556708756708757</v>
       </c>
       <c r="F7">
-        <v>0.04658798258798259</v>
+        <v>-0.01645033645033645</v>
       </c>
       <c r="H7">
-        <v>-0.06302514302514303</v>
+        <v>0.008852912852912852</v>
       </c>
       <c r="I7">
-        <v>-0.05220785220785221</v>
+        <v>0.01506395106395106</v>
       </c>
       <c r="J7">
-        <v>-0.04437582155106347</v>
+        <v>-0.02306893812885667</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1196498996498997</v>
+        <v>-0.05016027816027816</v>
       </c>
       <c r="E8">
-        <v>-0.01467600267600268</v>
+        <v>-0.008157116157116158</v>
       </c>
       <c r="F8">
-        <v>-0.9558177198177198</v>
+        <v>-0.01737876537876538</v>
       </c>
       <c r="H8">
-        <v>0.9999999519999522</v>
+        <v>0.02170695370695371</v>
       </c>
       <c r="I8">
-        <v>0.977944025944026</v>
+        <v>0.02235392235392235</v>
       </c>
       <c r="J8">
-        <v>-0.04291538557079922</v>
+        <v>-0.0271477785368859</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.00997925797925798</v>
+        <v>-0.01607424407424408</v>
       </c>
       <c r="E9">
-        <v>-0.009481605481605482</v>
+        <v>0.01612180012180012</v>
       </c>
       <c r="F9">
-        <v>-0.02694179094179095</v>
+        <v>0.0187973227973228</v>
       </c>
       <c r="H9">
-        <v>0.03405706605706606</v>
+        <v>-0.02201823401823402</v>
       </c>
       <c r="I9">
-        <v>0.03047064647064647</v>
+        <v>-0.02097303297303297</v>
       </c>
       <c r="J9">
-        <v>0.008478131507756503</v>
+        <v>-0.005378978595608126</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.002148398148398149</v>
+        <v>0.03385072585072586</v>
       </c>
       <c r="E10">
-        <v>-0.07045330645330647</v>
+        <v>0.04347207147207147</v>
       </c>
       <c r="F10">
-        <v>0.09525494325494327</v>
+        <v>-0.01494221094221094</v>
       </c>
       <c r="H10">
-        <v>-0.07773310173310173</v>
+        <v>-0.04006874806874807</v>
       </c>
       <c r="I10">
-        <v>-0.0893987573987574</v>
+        <v>-0.02926784926784927</v>
       </c>
       <c r="J10">
-        <v>0.01557864627939118</v>
+        <v>0.02299174578345476</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -788,22 +799,22 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.04208250608250608</v>
+        <v>0.1047741567741568</v>
       </c>
       <c r="E11">
-        <v>-0.02768735168735169</v>
+        <v>0.999997071997072</v>
       </c>
       <c r="F11">
-        <v>0.01659006459006459</v>
+        <v>-0.2032888192888193</v>
       </c>
       <c r="H11">
-        <v>-0.008303348303348303</v>
+        <v>-0.04453936453936454</v>
       </c>
       <c r="I11">
-        <v>-0.01283276483276483</v>
+        <v>0.1744210504210504</v>
       </c>
       <c r="J11">
-        <v>0.03063431181887364</v>
+        <v>-0.0146946166621067</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -812,484 +823,490 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-0.0360972960972961</v>
+        <v>-0.1191535191535192</v>
       </c>
       <c r="E12">
-        <v>0.05713427713427714</v>
+        <v>0.04255212655212656</v>
       </c>
       <c r="F12">
-        <v>0.03212120012120012</v>
+        <v>0.02582227382227383</v>
       </c>
       <c r="H12">
-        <v>-0.05202520002520003</v>
+        <v>-0.03737553737553738</v>
       </c>
       <c r="I12">
-        <v>-0.03755493755493756</v>
+        <v>-0.0290987330987331</v>
       </c>
       <c r="J12">
-        <v>-0.01511407072963495</v>
+        <v>-0.009672423693456592</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.01653158853158853</v>
+        <v>0.02678539478539479</v>
       </c>
       <c r="E13">
-        <v>0.01317334917334917</v>
+        <v>-0.01292014892014892</v>
       </c>
       <c r="F13">
-        <v>-0.01983948783948784</v>
+        <v>-0.006443706443706445</v>
       </c>
       <c r="H13">
-        <v>0.01691334491334492</v>
+        <v>0.01010519810519811</v>
       </c>
       <c r="I13">
-        <v>0.01813471813471814</v>
+        <v>0.0061001461001461</v>
       </c>
       <c r="J13">
-        <v>-0.02930390199186858</v>
+        <v>-0.05716696458042957</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>0.9727860607860609</v>
+        <v>-0.02881700881700882</v>
       </c>
       <c r="E14">
-        <v>-0.0334987054987055</v>
+        <v>-0.03710524910524911</v>
       </c>
       <c r="F14">
-        <v>-0.0005498045498045497</v>
+        <v>-0.03107118707118707</v>
       </c>
       <c r="H14">
-        <v>0.008541884541884542</v>
+        <v>0.04195118995118996</v>
       </c>
       <c r="I14">
-        <v>0.002840966840966841</v>
+        <v>0.03047980247980248</v>
       </c>
       <c r="J14">
-        <v>-0.002869221765638849</v>
+        <v>-0.01022723804561007</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>0.03763566163566164</v>
+      </c>
+      <c r="E15">
+        <v>0.04190477390477391</v>
+      </c>
+      <c r="F15">
+        <v>-0.01482115482115482</v>
+      </c>
+      <c r="H15">
+        <v>0.004091860091860092</v>
+      </c>
+      <c r="I15">
+        <v>0.01214672414672415</v>
+      </c>
+      <c r="J15">
+        <v>0.02762860763244512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>-0.01671580071580072</v>
-      </c>
-      <c r="E15">
-        <v>-0.03452320652320653</v>
-      </c>
-      <c r="F15">
-        <v>0.0662937422937423</v>
-      </c>
-      <c r="H15">
-        <v>-0.0581998181998182</v>
-      </c>
-      <c r="I15">
-        <v>-0.06332244332244331</v>
-      </c>
-      <c r="J15">
-        <v>0.01012214724372368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>-0.04701887901887902</v>
+        <v>0.009181365181365182</v>
       </c>
       <c r="E16">
-        <v>-0.04332904332904333</v>
+        <v>0.006943938943938945</v>
       </c>
       <c r="F16">
-        <v>0.0128945648945649</v>
+        <v>0.004963144963144963</v>
       </c>
       <c r="H16">
-        <v>0.0008129048129048129</v>
+        <v>-0.00506045306045306</v>
       </c>
       <c r="I16">
-        <v>-0.008551280551280552</v>
+        <v>-0.002931770931770932</v>
       </c>
       <c r="J16">
-        <v>-0.05088534328826314</v>
+        <v>-0.007646576561923753</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>3.78960378960379E-05</v>
+      </c>
+      <c r="E17">
+        <v>-0.01577207177207177</v>
+      </c>
+      <c r="F17">
+        <v>0.01341292941292941</v>
+      </c>
+      <c r="H17">
+        <v>-0.003591747591747593</v>
+      </c>
+      <c r="I17">
+        <v>-0.007610803610803612</v>
+      </c>
+      <c r="J17">
+        <v>0.03139679284260154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>0.03777682977682978</v>
-      </c>
-      <c r="E17">
-        <v>-0.0106973626973627</v>
-      </c>
-      <c r="F17">
-        <v>-0.04381876381876382</v>
-      </c>
-      <c r="H17">
-        <v>0.001397125397125397</v>
-      </c>
-      <c r="I17">
-        <v>0.001472761472761473</v>
-      </c>
-      <c r="J17">
-        <v>-0.01051709530453076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C18">
-        <v>0.030999750999751</v>
+        <v>0.03557660357660358</v>
       </c>
       <c r="E18">
-        <v>0.999997251997252</v>
+        <v>-0.02747646347646348</v>
       </c>
       <c r="F18">
-        <v>-0.2702212982212983</v>
+        <v>-0.01414575814575815</v>
       </c>
       <c r="H18">
-        <v>-0.01603470403470404</v>
+        <v>0.02656388656388657</v>
       </c>
       <c r="I18">
-        <v>0.1891953571953572</v>
+        <v>0.01905475905475906</v>
       </c>
       <c r="J18">
-        <v>-0.06997621482903184</v>
+        <v>-0.007799549893420844</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0.0195958515958516</v>
+      </c>
+      <c r="E19">
+        <v>0.007181923181923183</v>
+      </c>
+      <c r="F19">
+        <v>0.02476084876084876</v>
+      </c>
+      <c r="H19">
+        <v>-0.02724641124641125</v>
+      </c>
+      <c r="I19">
+        <v>-0.02550434550434551</v>
+      </c>
+      <c r="J19">
+        <v>-0.01904341106791627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>-0.1222910062910063</v>
-      </c>
-      <c r="E19">
-        <v>-0.02503900903900904</v>
-      </c>
-      <c r="F19">
-        <v>0.01090595890595891</v>
-      </c>
-      <c r="H19">
-        <v>-0.005946389946389947</v>
-      </c>
-      <c r="I19">
-        <v>-0.01142872742872743</v>
-      </c>
-      <c r="J19">
-        <v>-0.01079894372909723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C20">
-        <v>0.0377007257007257</v>
+        <v>-0.08254997854997856</v>
       </c>
       <c r="E20">
-        <v>-0.02534320934320934</v>
+        <v>0.01566698766698767</v>
       </c>
       <c r="F20">
-        <v>-0.006927858927858928</v>
+        <v>0.08136970536970538</v>
       </c>
       <c r="H20">
-        <v>0.01529091929091929</v>
+        <v>-0.08571178971178972</v>
       </c>
       <c r="I20">
-        <v>0.01041791841791842</v>
+        <v>-0.08208890208890209</v>
       </c>
       <c r="J20">
-        <v>-0.03938121408036777</v>
+        <v>0.05587082624518381</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.01614551214551214</v>
+        <v>-0.01084174684174684</v>
       </c>
       <c r="E21">
-        <v>0.05035229035229035</v>
+        <v>-0.0404959004959005</v>
       </c>
       <c r="F21">
-        <v>-0.007597087597087598</v>
+        <v>0.02140954540954541</v>
       </c>
       <c r="H21">
-        <v>-0.006391722391722393</v>
+        <v>-0.01738890538890539</v>
       </c>
       <c r="I21">
-        <v>0.003907131907131907</v>
+        <v>-0.02391518391518392</v>
       </c>
       <c r="J21">
-        <v>-0.02024206083568046</v>
+        <v>0.01683896392334662</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-0.04241255441255441</v>
+        <v>0.02481379281379282</v>
       </c>
       <c r="E22">
-        <v>0.01367227367227367</v>
+        <v>-0.04691377091377091</v>
       </c>
       <c r="F22">
-        <v>-0.02205343005343005</v>
+        <v>-0.04128049728049728</v>
       </c>
       <c r="H22">
-        <v>0.02121404121404121</v>
+        <v>0.05203801603801603</v>
       </c>
       <c r="I22">
-        <v>0.02280578280578281</v>
+        <v>0.04107894507894508</v>
       </c>
       <c r="J22">
-        <v>0.01415405080288144</v>
+        <v>-0.009343144558519171</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>-0.001542541542541543</v>
+        <v>-0.08555001755001757</v>
       </c>
       <c r="E23">
-        <v>0.02661149061149061</v>
+        <v>0.007395643395643396</v>
       </c>
       <c r="F23">
-        <v>-0.02738942738942739</v>
+        <v>0.002100686100686101</v>
       </c>
       <c r="H23">
-        <v>0.01831504231504232</v>
+        <v>-0.00560934560934561</v>
       </c>
       <c r="I23">
-        <v>0.02353199953199953</v>
+        <v>-0.002294846294846295</v>
       </c>
       <c r="J23">
-        <v>-0.04366620479537292</v>
+        <v>-0.02606150632765931</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>-0.05971083571083572</v>
+        <v>0.03883125883125883</v>
       </c>
       <c r="E24">
-        <v>-0.0191000111000111</v>
+        <v>0.006403746403746404</v>
       </c>
       <c r="F24">
-        <v>0.05067939867939868</v>
+        <v>0.008064944064944065</v>
       </c>
       <c r="H24">
-        <v>-0.04824052824052825</v>
+        <v>-0.00883923283923284</v>
       </c>
       <c r="I24">
-        <v>-0.05177709977709978</v>
+        <v>-0.009307569307569308</v>
       </c>
       <c r="J24">
-        <v>0.01289424718858361</v>
+        <v>-0.05063637084258524</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>-0.01144401544401544</v>
+        <v>0.02257095457095457</v>
       </c>
       <c r="E25">
-        <v>-0.01535139935139935</v>
+        <v>0.03847925047925048</v>
       </c>
       <c r="F25">
-        <v>0.01994861594861595</v>
+        <v>0.02802952002952003</v>
       </c>
       <c r="H25">
-        <v>-0.01335414135414136</v>
+        <v>-0.03985439185439186</v>
       </c>
       <c r="I25">
-        <v>-0.01576635976635977</v>
+        <v>-0.03137812337812338</v>
       </c>
       <c r="J25">
-        <v>0.03086520055917731</v>
+        <v>0.04642575151579705</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.0794872514872515</v>
+        <v>-0.03613846813846814</v>
       </c>
       <c r="E26">
-        <v>-0.008639456639456639</v>
+        <v>0.001223797223797224</v>
       </c>
       <c r="F26">
-        <v>0.0006888126888126889</v>
+        <v>0.03543351543351544</v>
       </c>
       <c r="H26">
-        <v>0.002500322500322501</v>
+        <v>-0.03772281772281773</v>
       </c>
       <c r="I26">
-        <v>0.001316821316821317</v>
+        <v>-0.03308152508152509</v>
       </c>
       <c r="J26">
-        <v>-0.01334127776397717</v>
+        <v>0.04834526623658213</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>-0.001854265854265854</v>
+        <v>-0.004066168066168067</v>
       </c>
       <c r="E27">
-        <v>-0.03613506013506013</v>
+        <v>0.02120582120582121</v>
       </c>
       <c r="F27">
-        <v>0.02045398445398446</v>
+        <v>-0.0402980082980083</v>
       </c>
       <c r="H27">
-        <v>-0.01176383976383976</v>
+        <v>0.03296129696129697</v>
       </c>
       <c r="I27">
-        <v>-0.01675240075240075</v>
+        <v>0.03942546342546343</v>
       </c>
       <c r="J27">
-        <v>0.01711779446667805</v>
+        <v>-0.0113573404685411</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>0.003763299763299764</v>
+        <v>0.03222602022602023</v>
       </c>
       <c r="E28">
-        <v>0.01147385947385948</v>
+        <v>0.03546225546225547</v>
       </c>
       <c r="F28">
-        <v>0.02461588861588862</v>
+        <v>-0.004456276456276456</v>
       </c>
       <c r="H28">
-        <v>-0.02956066156066156</v>
+        <v>-0.002368610368610369</v>
       </c>
       <c r="I28">
-        <v>-0.02799691599691599</v>
+        <v>0.003501615501615502</v>
       </c>
       <c r="J28">
-        <v>0.03238084136294953</v>
+        <v>-0.006278032491350406</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>0.007794823794823795</v>
+        <v>-0.04812610812610813</v>
       </c>
       <c r="E29">
-        <v>-0.03006383406383406</v>
+        <v>0.01038388638388638</v>
       </c>
       <c r="F29">
-        <v>0.007065463065463067</v>
+        <v>0.03042681042681043</v>
       </c>
       <c r="H29">
-        <v>-0.0005543405543405543</v>
+        <v>-0.03702022902022902</v>
       </c>
       <c r="I29">
-        <v>-0.00714010314010314</v>
+        <v>-0.0318975798975799</v>
       </c>
       <c r="J29">
-        <v>0.03466845503423854</v>
+        <v>-0.04143539520963627</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>-0.006987210987210989</v>
+        <v>0.03245832845832846</v>
       </c>
       <c r="E30">
-        <v>0.007657975657975658</v>
+        <v>-0.01014025014025014</v>
       </c>
       <c r="F30">
-        <v>-0.02703381903381903</v>
+        <v>-0.01204323604323604</v>
       </c>
       <c r="H30">
-        <v>0.02383625983625984</v>
+        <v>0.01403754203754204</v>
       </c>
       <c r="I30">
-        <v>0.02638017838017838</v>
+        <v>0.01301083301083301</v>
       </c>
       <c r="J30">
-        <v>-0.01452329385504836</v>
+        <v>-0.02982687482498655</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Element</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>Cofermentation</t>
+  </si>
+  <si>
     <t>lipidcane</t>
   </si>
   <si>
@@ -157,16 +160,22 @@
     <t>Xylose to ethanol yield [%]</t>
   </si>
   <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
+    <t>Titer [g/L]</t>
+  </si>
+  <si>
+    <t>Productivity [g/L]</t>
+  </si>
+  <si>
+    <t>Cane  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA content [% lipid]</t>
   </si>
   <si>
     <t>Cane lipid content [dry wt. %]</t>
@@ -533,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,73 +629,73 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>-0.004501072501072501</v>
+        <v>0.03057947114486778</v>
       </c>
       <c r="E4">
-        <v>-0.03305246105246105</v>
+        <v>-0.01846488311622078</v>
       </c>
       <c r="F4">
-        <v>-0.01978691578691579</v>
+        <v>0.01236589509147377</v>
       </c>
       <c r="H4">
-        <v>0.02662152262152262</v>
+        <v>-0.009776109944027486</v>
       </c>
       <c r="I4">
-        <v>0.02172424572424573</v>
+        <v>-0.01210015202503801</v>
       </c>
       <c r="J4">
-        <v>0.04141639290816179</v>
+        <v>0.03061973180520828</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>-0.001867597867597868</v>
+        <v>-0.01539923784980946</v>
       </c>
       <c r="E5">
-        <v>-0.00825990825990826</v>
+        <v>-0.0002372250593062648</v>
       </c>
       <c r="F5">
-        <v>-0.03042930642930643</v>
+        <v>0.001008319752079938</v>
       </c>
       <c r="H5">
-        <v>0.03170943170943171</v>
+        <v>-0.001041726260431565</v>
       </c>
       <c r="I5">
-        <v>0.02876791676791677</v>
+        <v>-0.001145158786289697</v>
       </c>
       <c r="J5">
-        <v>0.01510275174469269</v>
+        <v>-0.00442952244769659</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0.1346127266127266</v>
+        <v>0.1393025268256317</v>
       </c>
       <c r="E6">
-        <v>-0.04306939906939907</v>
+        <v>-0.01650783262695816</v>
       </c>
       <c r="F6">
-        <v>-0.9661423141423141</v>
+        <v>-0.9659814389953598</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.9999999984999997</v>
       </c>
       <c r="I6">
-        <v>0.9742967062967064</v>
+        <v>0.9745527441381859</v>
       </c>
       <c r="J6">
-        <v>-0.0354581624241487</v>
+        <v>-0.0357733835762755</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -694,25 +703,25 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0.9674192954192956</v>
+        <v>0.9678937774734443</v>
       </c>
       <c r="E7">
-        <v>0.03556708756708757</v>
+        <v>-0.008433768608442152</v>
       </c>
       <c r="F7">
-        <v>-0.01645033645033645</v>
+        <v>-0.01057604514401129</v>
       </c>
       <c r="H7">
-        <v>0.008852912852912852</v>
+        <v>0.0135843483960871</v>
       </c>
       <c r="I7">
-        <v>0.01506395106395106</v>
+        <v>0.01102662875665719</v>
       </c>
       <c r="J7">
-        <v>-0.02306893812885667</v>
+        <v>0.05245317589392218</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -720,25 +729,25 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>-0.05016027816027816</v>
+        <v>-0.005917631979407994</v>
       </c>
       <c r="E8">
-        <v>-0.008157116157116158</v>
+        <v>-0.01299660024915006</v>
       </c>
       <c r="F8">
-        <v>-0.01737876537876538</v>
+        <v>0.00272367068091767</v>
       </c>
       <c r="H8">
-        <v>0.02170695370695371</v>
+        <v>-0.000657775664443916</v>
       </c>
       <c r="I8">
-        <v>0.02235392235392235</v>
+        <v>-0.003187967296991824</v>
       </c>
       <c r="J8">
-        <v>-0.0271477785368859</v>
+        <v>0.01770658312801951</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -746,25 +755,25 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.01607424407424408</v>
+        <v>-0.01469674417418604</v>
       </c>
       <c r="E9">
-        <v>0.01612180012180012</v>
+        <v>-0.01794754198688549</v>
       </c>
       <c r="F9">
-        <v>0.0187973227973228</v>
+        <v>-0.00352977988244497</v>
       </c>
       <c r="H9">
-        <v>-0.02201823401823402</v>
+        <v>0.00743721935930484</v>
       </c>
       <c r="I9">
-        <v>-0.02097303297303297</v>
+        <v>0.001443475860868965</v>
       </c>
       <c r="J9">
-        <v>-0.005378978595608126</v>
+        <v>0.02684575209486841</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -772,73 +781,73 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>0.03385072585072586</v>
+        <v>0.05134512683628171</v>
       </c>
       <c r="E10">
-        <v>0.04347207147207147</v>
+        <v>0.02033332408333102</v>
       </c>
       <c r="F10">
-        <v>-0.01494221094221094</v>
+        <v>-0.1015813243953311</v>
       </c>
       <c r="H10">
-        <v>-0.04006874806874807</v>
+        <v>0.05413968303492075</v>
       </c>
       <c r="I10">
-        <v>-0.02926784926784927</v>
+        <v>0.05814675703668926</v>
       </c>
       <c r="J10">
-        <v>0.02299174578345476</v>
+        <v>0.04171455152726111</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1047741567741568</v>
+        <v>0.06324836331209083</v>
       </c>
       <c r="E11">
-        <v>0.999997071997072</v>
+        <v>0.9999970179992543</v>
       </c>
       <c r="F11">
-        <v>-0.2032888192888193</v>
+        <v>-0.2310243217560805</v>
       </c>
       <c r="H11">
-        <v>-0.04453936453936454</v>
+        <v>-0.0184027936006984</v>
       </c>
       <c r="I11">
-        <v>0.1744210504210504</v>
+        <v>0.2002529930632483</v>
       </c>
       <c r="J11">
-        <v>-0.0146946166621067</v>
+        <v>0.01014378867724901</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.1191535191535192</v>
+        <v>-0.1665497906374477</v>
       </c>
       <c r="E12">
-        <v>0.04255212655212656</v>
+        <v>0.02548170787042696</v>
       </c>
       <c r="F12">
-        <v>0.02582227382227383</v>
+        <v>0.009559578889894721</v>
       </c>
       <c r="H12">
-        <v>-0.03737553737553738</v>
+        <v>-0.01531340182835045</v>
       </c>
       <c r="I12">
-        <v>-0.0290987330987331</v>
+        <v>-0.01069399617349904</v>
       </c>
       <c r="J12">
-        <v>-0.009672423693456592</v>
+        <v>-0.02164844721749659</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -846,25 +855,25 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>0.02678539478539479</v>
+        <v>0.0156537864134466</v>
       </c>
       <c r="E13">
-        <v>-0.01292014892014892</v>
+        <v>-0.008029539507384876</v>
       </c>
       <c r="F13">
-        <v>-0.006443706443706445</v>
+        <v>0.002485656621414155</v>
       </c>
       <c r="H13">
-        <v>0.01010519810519811</v>
+        <v>-0.002595023148755787</v>
       </c>
       <c r="I13">
-        <v>0.0061001461001461</v>
+        <v>-0.002792030198007549</v>
       </c>
       <c r="J13">
-        <v>-0.05716696458042957</v>
+        <v>-0.004298854379689764</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -872,25 +881,25 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.02881700881700882</v>
+        <v>0.00831857907964477</v>
       </c>
       <c r="E14">
-        <v>-0.03710524910524911</v>
+        <v>-0.001614724903681226</v>
       </c>
       <c r="F14">
-        <v>-0.03107118707118707</v>
+        <v>-0.009792312948078237</v>
       </c>
       <c r="H14">
-        <v>0.04195118995118996</v>
+        <v>0.009874869968717491</v>
       </c>
       <c r="I14">
-        <v>0.03047980247980248</v>
+        <v>0.009062567265641816</v>
       </c>
       <c r="J14">
-        <v>-0.01022723804561007</v>
+        <v>0.001947717921221272</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -898,49 +907,49 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>0.03763566163566164</v>
+        <v>-0.00128607932151983</v>
       </c>
       <c r="E15">
-        <v>0.04190477390477391</v>
+        <v>0.008610117652529411</v>
       </c>
       <c r="F15">
-        <v>-0.01482115482115482</v>
+        <v>-0.02887987771996943</v>
       </c>
       <c r="H15">
-        <v>0.004091860091860092</v>
+        <v>0.02907604626901156</v>
       </c>
       <c r="I15">
-        <v>0.01214672414672415</v>
+        <v>0.03009894902473725</v>
       </c>
       <c r="J15">
-        <v>0.02762860763244512</v>
+        <v>0.007098752938005406</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>0.009181365181365182</v>
+        <v>0.004023580005895001</v>
       </c>
       <c r="E16">
-        <v>0.006943938943938945</v>
+        <v>0.01939105684776421</v>
       </c>
       <c r="F16">
-        <v>0.004963144963144963</v>
+        <v>0.01911915177978794</v>
       </c>
       <c r="H16">
-        <v>-0.00506045306045306</v>
+        <v>-0.02526339181584795</v>
       </c>
       <c r="I16">
-        <v>-0.002931770931770932</v>
+        <v>-0.01877292169323042</v>
       </c>
       <c r="J16">
-        <v>-0.007646576561923753</v>
+        <v>-0.007290665516970843</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -948,25 +957,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>3.78960378960379E-05</v>
+        <v>0.003855783963945991</v>
       </c>
       <c r="E17">
-        <v>-0.01577207177207177</v>
+        <v>-0.01908816927204232</v>
       </c>
       <c r="F17">
-        <v>0.01341292941292941</v>
+        <v>-0.004417511604377901</v>
       </c>
       <c r="H17">
-        <v>-0.003591747591747593</v>
+        <v>0.01060501465125366</v>
       </c>
       <c r="I17">
-        <v>-0.007610803610803612</v>
+        <v>0.00336371484092871</v>
       </c>
       <c r="J17">
-        <v>0.03139679284260154</v>
+        <v>-0.02628792403681315</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -974,97 +983,97 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03557660357660358</v>
+        <v>0.01004788751197188</v>
       </c>
       <c r="E18">
-        <v>-0.02747646347646348</v>
+        <v>-0.01224278106069526</v>
       </c>
       <c r="F18">
-        <v>-0.01414575814575815</v>
+        <v>-0.0104795336198834</v>
       </c>
       <c r="H18">
-        <v>0.02656388656388657</v>
+        <v>0.01244686811171703</v>
       </c>
       <c r="I18">
-        <v>0.01905475905475906</v>
+        <v>0.01021040955260239</v>
       </c>
       <c r="J18">
-        <v>-0.007799549893420844</v>
+        <v>-0.003828081818256758</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.0195958515958516</v>
+        <v>0.0336551844137961</v>
       </c>
       <c r="E19">
-        <v>0.007181923181923183</v>
+        <v>-0.01295161073790268</v>
       </c>
       <c r="F19">
-        <v>0.02476084876084876</v>
+        <v>0.006333714083428521</v>
       </c>
       <c r="H19">
-        <v>-0.02724641124641125</v>
+        <v>-0.003346568336642084</v>
       </c>
       <c r="I19">
-        <v>-0.02550434550434551</v>
+        <v>-0.006414003103500775</v>
       </c>
       <c r="J19">
-        <v>-0.01904341106791627</v>
+        <v>0.03220011327319806</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.08254997854997856</v>
+        <v>0.003300930825232706</v>
       </c>
       <c r="E20">
-        <v>0.01566698766698767</v>
+        <v>-0.01389886247471562</v>
       </c>
       <c r="F20">
-        <v>0.08136970536970538</v>
+        <v>0.03183355545838886</v>
       </c>
       <c r="H20">
-        <v>-0.08571178971178972</v>
+        <v>-0.02944857586214396</v>
       </c>
       <c r="I20">
-        <v>-0.08208890208890209</v>
+        <v>-0.03152527688131922</v>
       </c>
       <c r="J20">
-        <v>0.05587082624518381</v>
+        <v>-0.004493358190951576</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.01084174684174684</v>
+        <v>-0.01011415452853863</v>
       </c>
       <c r="E21">
-        <v>-0.0404959004959005</v>
+        <v>-0.03498953824738456</v>
       </c>
       <c r="F21">
-        <v>0.02140954540954541</v>
+        <v>0.03531175182793796</v>
       </c>
       <c r="H21">
-        <v>-0.01738890538890539</v>
+        <v>-0.02887250221812555</v>
       </c>
       <c r="I21">
-        <v>-0.02391518391518392</v>
+        <v>-0.0364499056124764</v>
       </c>
       <c r="J21">
-        <v>0.01683896392334662</v>
+        <v>-0.02769417199215836</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1072,49 +1081,49 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>0.02481379281379282</v>
+        <v>-0.01463702915925729</v>
       </c>
       <c r="E22">
-        <v>-0.04691377091377091</v>
+        <v>0.02576221844055461</v>
       </c>
       <c r="F22">
-        <v>-0.04128049728049728</v>
+        <v>-0.006408082602020649</v>
       </c>
       <c r="H22">
-        <v>0.05203801603801603</v>
+        <v>-0.001984263496065874</v>
       </c>
       <c r="I22">
-        <v>0.04107894507894508</v>
+        <v>0.003379823344955836</v>
       </c>
       <c r="J22">
-        <v>-0.009343144558519171</v>
+        <v>0.008614099880012115</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.08555001755001757</v>
+        <v>-0.02790892447723111</v>
       </c>
       <c r="E23">
-        <v>0.007395643395643396</v>
+        <v>-0.03154759988689997</v>
       </c>
       <c r="F23">
-        <v>0.002100686100686101</v>
+        <v>0.02593922748480687</v>
       </c>
       <c r="H23">
-        <v>-0.00560934560934561</v>
+        <v>-0.02111037527759382</v>
       </c>
       <c r="I23">
-        <v>-0.002294846294846295</v>
+        <v>-0.02689557072389268</v>
       </c>
       <c r="J23">
-        <v>-0.02606150632765931</v>
+        <v>-0.00427715543647094</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1122,191 +1131,242 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>0.03883125883125883</v>
+        <v>-0.005070901267725318</v>
       </c>
       <c r="E24">
-        <v>0.006403746403746404</v>
+        <v>0.04308569877142469</v>
       </c>
       <c r="F24">
-        <v>0.008064944064944065</v>
+        <v>0.02083814470953618</v>
       </c>
       <c r="H24">
-        <v>-0.00883923283923284</v>
+        <v>-0.03380847695211923</v>
       </c>
       <c r="I24">
-        <v>-0.009307569307569308</v>
+        <v>-0.02417199454299863</v>
       </c>
       <c r="J24">
-        <v>-0.05063637084258524</v>
+        <v>-0.006887121621730142</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>0.02257095457095457</v>
+        <v>-0.01991460047865012</v>
       </c>
       <c r="E25">
-        <v>0.03847925047925048</v>
+        <v>-0.01839982659995665</v>
       </c>
       <c r="F25">
-        <v>0.02802952002952003</v>
+        <v>0.008701251675312919</v>
       </c>
       <c r="H25">
-        <v>-0.03985439185439186</v>
+        <v>-0.004792757698189424</v>
       </c>
       <c r="I25">
-        <v>-0.03137812337812338</v>
+        <v>-0.009120605280151319</v>
       </c>
       <c r="J25">
-        <v>0.04642575151579705</v>
+        <v>0.007635450292369186</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.03613846813846814</v>
+        <v>-0.02057385664346416</v>
       </c>
       <c r="E26">
-        <v>0.001223797223797224</v>
+        <v>0.02042764860691215</v>
       </c>
       <c r="F26">
-        <v>0.03543351543351544</v>
+        <v>-9.750902437725609E-05</v>
       </c>
       <c r="H26">
-        <v>-0.03772281772281773</v>
+        <v>-0.003673760418440104</v>
       </c>
       <c r="I26">
-        <v>-0.03308152508152509</v>
+        <v>0.0003313155828288957</v>
       </c>
       <c r="J26">
-        <v>0.04834526623658213</v>
+        <v>0.01305354287406702</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.004066168066168067</v>
+        <v>-0.0006671281667820416</v>
       </c>
       <c r="E27">
-        <v>0.02120582120582121</v>
+        <v>-0.03036725409181352</v>
       </c>
       <c r="F27">
-        <v>-0.0402980082980083</v>
+        <v>0.02631006057751514</v>
       </c>
       <c r="H27">
-        <v>0.03296129696129697</v>
+        <v>-0.01791601497900374</v>
       </c>
       <c r="I27">
-        <v>0.03942546342546343</v>
+        <v>-0.02435210708802677</v>
       </c>
       <c r="J27">
-        <v>-0.0113573404685411</v>
+        <v>0.01691403161025519</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>0.03222602022602023</v>
+        <v>0.05991713247928312</v>
       </c>
       <c r="E28">
-        <v>0.03546225546225547</v>
+        <v>0.01850428062607016</v>
       </c>
       <c r="F28">
-        <v>-0.004456276456276456</v>
+        <v>0.004135015033753758</v>
       </c>
       <c r="H28">
-        <v>-0.002368610368610369</v>
+        <v>-0.01047546411886603</v>
       </c>
       <c r="I28">
-        <v>0.003501615501615502</v>
+        <v>-0.005935952983988245</v>
       </c>
       <c r="J28">
-        <v>-0.006278032491350406</v>
+        <v>0.04353265904163014</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.04812610812610813</v>
+        <v>-0.01333349433337358</v>
       </c>
       <c r="E29">
-        <v>0.01038388638388638</v>
+        <v>0.008584064146016037</v>
       </c>
       <c r="F29">
-        <v>0.03042681042681043</v>
+        <v>-0.002574990643747661</v>
       </c>
       <c r="H29">
-        <v>-0.03702022902022902</v>
+        <v>-0.001348210837052709</v>
       </c>
       <c r="I29">
-        <v>-0.0318975798975799</v>
+        <v>0.002337033584258396</v>
       </c>
       <c r="J29">
-        <v>-0.04143539520963627</v>
+        <v>-0.04091344188684006</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>-0.03486313171578292</v>
+      </c>
+      <c r="E30">
+        <v>0.01191809547952387</v>
+      </c>
+      <c r="F30">
+        <v>0.02331590832897708</v>
+      </c>
+      <c r="H30">
+        <v>-0.02810070252517563</v>
+      </c>
+      <c r="I30">
+        <v>-0.02634610408652602</v>
+      </c>
+      <c r="J30">
+        <v>0.01157654872224537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>-0.003797018449254612</v>
+      </c>
+      <c r="E31">
+        <v>0.02082699970674992</v>
+      </c>
+      <c r="F31">
+        <v>-0.008606390151597537</v>
+      </c>
+      <c r="H31">
+        <v>0.003448298362074591</v>
+      </c>
+      <c r="I31">
+        <v>0.007047027261756816</v>
+      </c>
+      <c r="J31">
+        <v>0.00473658572675729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>0.03245832845832846</v>
-      </c>
-      <c r="E30">
-        <v>-0.01014025014025014</v>
-      </c>
-      <c r="F30">
-        <v>-0.01204323604323604</v>
-      </c>
-      <c r="H30">
-        <v>0.01403754203754204</v>
-      </c>
-      <c r="I30">
-        <v>0.01301083301083301</v>
-      </c>
-      <c r="J30">
-        <v>-0.02982687482498655</v>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>-0.03002925450731363</v>
+      </c>
+      <c r="E32">
+        <v>0.001495426873856718</v>
+      </c>
+      <c r="F32">
+        <v>-0.009351651837912959</v>
+      </c>
+      <c r="H32">
+        <v>0.009646572911643227</v>
+      </c>
+      <c r="I32">
+        <v>0.009839577959894491</v>
+      </c>
+      <c r="J32">
+        <v>0.03250429481970205</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Element</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Tau</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,22 +635,22 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>0.03057947114486778</v>
+        <v>-0.02307611737104469</v>
       </c>
       <c r="E4">
-        <v>-0.01846488311622078</v>
+        <v>-0.01486505272260211</v>
       </c>
       <c r="F4">
-        <v>0.01236589509147377</v>
+        <v>-0.01820194700007788</v>
       </c>
       <c r="H4">
-        <v>-0.009776109944027486</v>
+        <v>0.02341551876062075</v>
       </c>
       <c r="I4">
-        <v>-0.01210015202503801</v>
+        <v>0.01973275000531</v>
       </c>
       <c r="J4">
-        <v>0.03061973180520828</v>
+        <v>-0.0127466260108862</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -656,22 +659,22 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>-0.01539923784980946</v>
+        <v>0.006554580838183233</v>
       </c>
       <c r="E5">
-        <v>-0.0002372250593062648</v>
+        <v>-0.01249814843592593</v>
       </c>
       <c r="F5">
-        <v>0.001008319752079938</v>
+        <v>-0.02196085201443408</v>
       </c>
       <c r="H5">
-        <v>-0.001041726260431565</v>
+        <v>0.02399053430362137</v>
       </c>
       <c r="I5">
-        <v>-0.001145158786289697</v>
+        <v>0.0217038475241539</v>
       </c>
       <c r="J5">
-        <v>-0.00442952244769659</v>
+        <v>-0.03071514231695889</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,22 +683,22 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.1393025268256317</v>
+        <v>0.1163238458369538</v>
       </c>
       <c r="E6">
-        <v>-0.01650783262695816</v>
+        <v>0.009930803437232136</v>
       </c>
       <c r="F6">
-        <v>-0.9659814389953598</v>
+        <v>-0.9671649738225989</v>
       </c>
       <c r="H6">
-        <v>0.9999999984999997</v>
+        <v>0.9999999951999997</v>
       </c>
       <c r="I6">
-        <v>0.9745527441381859</v>
+        <v>0.9749380372055213</v>
       </c>
       <c r="J6">
-        <v>-0.0357733835762755</v>
+        <v>-0.02284548405637108</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -706,22 +709,22 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.9678937774734443</v>
+        <v>0.9679425663657025</v>
       </c>
       <c r="E7">
-        <v>-0.008433768608442152</v>
+        <v>0.02183901725756069</v>
       </c>
       <c r="F7">
-        <v>-0.01057604514401129</v>
+        <v>-0.002196779607871184</v>
       </c>
       <c r="H7">
-        <v>0.0135843483960871</v>
+        <v>-0.004819855104794203</v>
       </c>
       <c r="I7">
-        <v>0.01102662875665719</v>
+        <v>0.0009388744695549788</v>
       </c>
       <c r="J7">
-        <v>0.05245317589392218</v>
+        <v>-0.02101830995130123</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -732,22 +735,22 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>-0.005917631979407994</v>
+        <v>0.02195997457439898</v>
       </c>
       <c r="E8">
-        <v>-0.01299660024915006</v>
+        <v>0.02210765877230635</v>
       </c>
       <c r="F8">
-        <v>0.00272367068091767</v>
+        <v>-0.01830621202824848</v>
       </c>
       <c r="H8">
-        <v>-0.000657775664443916</v>
+        <v>0.013133600109344</v>
       </c>
       <c r="I8">
-        <v>-0.003187967296991824</v>
+        <v>0.01705725879429035</v>
       </c>
       <c r="J8">
-        <v>0.01770658312801951</v>
+        <v>-0.01093912354678632</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -758,22 +761,22 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.01469674417418604</v>
+        <v>-0.003729259541170381</v>
       </c>
       <c r="E9">
-        <v>-0.01794754198688549</v>
+        <v>-0.01555570276622811</v>
       </c>
       <c r="F9">
-        <v>-0.00352977988244497</v>
+        <v>0.01773656624546265</v>
       </c>
       <c r="H9">
-        <v>0.00743721935930484</v>
+        <v>-0.01424843855393754</v>
       </c>
       <c r="I9">
-        <v>0.001443475860868965</v>
+        <v>-0.01634195143767805</v>
       </c>
       <c r="J9">
-        <v>0.02684575209486841</v>
+        <v>-0.004520808358361815</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -784,22 +787,22 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.05134512683628171</v>
+        <v>0.05133982093359282</v>
       </c>
       <c r="E10">
-        <v>0.02033332408333102</v>
+        <v>-0.01149723156388926</v>
       </c>
       <c r="F10">
-        <v>-0.1015813243953311</v>
+        <v>-0.05887922145916885</v>
       </c>
       <c r="H10">
-        <v>0.05413968303492075</v>
+        <v>0.01806236366649455</v>
       </c>
       <c r="I10">
-        <v>0.05814675703668926</v>
+        <v>0.01517028415881136</v>
       </c>
       <c r="J10">
-        <v>0.04171455152726111</v>
+        <v>-0.02506616338394821</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -808,22 +811,22 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>0.06324836331209083</v>
+        <v>0.0990861353554454</v>
       </c>
       <c r="E11">
-        <v>0.9999970179992543</v>
+        <v>0.9999968654078745</v>
       </c>
       <c r="F11">
-        <v>-0.2310243217560805</v>
+        <v>-0.2512937360357494</v>
       </c>
       <c r="H11">
-        <v>-0.0184027936006984</v>
+        <v>0.007687028851481153</v>
       </c>
       <c r="I11">
-        <v>0.2002529930632483</v>
+        <v>0.2239009458520378</v>
       </c>
       <c r="J11">
-        <v>0.01014378867724901</v>
+        <v>0.006862759096253799</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -832,22 +835,22 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.1665497906374477</v>
+        <v>-0.1573209172368367</v>
       </c>
       <c r="E12">
-        <v>0.02548170787042696</v>
+        <v>0.008809107616364305</v>
       </c>
       <c r="F12">
-        <v>0.009559578889894721</v>
+        <v>-0.01671550242862009</v>
       </c>
       <c r="H12">
-        <v>-0.01531340182835045</v>
+        <v>0.01444848460993938</v>
       </c>
       <c r="I12">
-        <v>-0.01069399617349904</v>
+        <v>0.01745732441029297</v>
       </c>
       <c r="J12">
-        <v>-0.02164844721749659</v>
+        <v>0.01022890594242445</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -858,22 +861,22 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>0.0156537864134466</v>
+        <v>0.02231155337246214</v>
       </c>
       <c r="E13">
-        <v>-0.008029539507384876</v>
+        <v>-0.001814026824561073</v>
       </c>
       <c r="F13">
-        <v>0.002485656621414155</v>
+        <v>0.003307276356291054</v>
       </c>
       <c r="H13">
-        <v>-0.002595023148755787</v>
+        <v>-0.004730340093213602</v>
       </c>
       <c r="I13">
-        <v>-0.002792030198007549</v>
+        <v>-0.00490474877218995</v>
       </c>
       <c r="J13">
-        <v>-0.004298854379689764</v>
+        <v>0.005881188095726952</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -884,148 +887,150 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.00831857907964477</v>
+        <v>0.002277010651080426</v>
       </c>
       <c r="E14">
-        <v>-0.001614724903681226</v>
+        <v>-0.03806526814661072</v>
       </c>
       <c r="F14">
-        <v>-0.009792312948078237</v>
+        <v>0.00844750776190031</v>
       </c>
       <c r="H14">
-        <v>0.009874869968717491</v>
+        <v>-0.0001488798779551951</v>
       </c>
       <c r="I14">
-        <v>0.009062567265641816</v>
+        <v>-0.008074700962988037</v>
       </c>
       <c r="J14">
-        <v>0.001947717921221272</v>
+        <v>-0.004218975511838679</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>-0.01578359362334374</v>
+      </c>
+      <c r="E15">
+        <v>-0.002610148808405952</v>
+      </c>
+      <c r="F15">
+        <v>0.008902670276106811</v>
+      </c>
+      <c r="H15">
+        <v>-0.00778286277531451</v>
+      </c>
+      <c r="I15">
+        <v>-0.00791711676468467</v>
+      </c>
+      <c r="J15">
+        <v>-0.0002676898085111147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>-0.00128607932151983</v>
-      </c>
-      <c r="E15">
-        <v>0.008610117652529411</v>
-      </c>
-      <c r="F15">
-        <v>-0.02887987771996943</v>
-      </c>
-      <c r="H15">
-        <v>0.02907604626901156</v>
-      </c>
-      <c r="I15">
-        <v>0.03009894902473725</v>
-      </c>
-      <c r="J15">
-        <v>0.007098752938005406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>0.004023580005895001</v>
+        <v>0.001322935060917402</v>
       </c>
       <c r="E16">
-        <v>0.01939105684776421</v>
+        <v>0.017074125130965</v>
       </c>
       <c r="F16">
-        <v>0.01911915177978794</v>
+        <v>-0.008448360145934405</v>
       </c>
       <c r="H16">
-        <v>-0.02526339181584795</v>
+        <v>0.004075764931030597</v>
       </c>
       <c r="I16">
-        <v>-0.01877292169323042</v>
+        <v>0.007431940713277627</v>
       </c>
       <c r="J16">
-        <v>-0.007290665516970843</v>
+        <v>0.007688120367334951</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.003855783963945991</v>
+        <v>0.001925532845021314</v>
       </c>
       <c r="E17">
-        <v>-0.01908816927204232</v>
+        <v>-0.002314138172565526</v>
       </c>
       <c r="F17">
-        <v>-0.004417511604377901</v>
+        <v>-0.003051750554070022</v>
       </c>
       <c r="H17">
-        <v>0.01060501465125366</v>
+        <v>0.006518833220753327</v>
       </c>
       <c r="I17">
-        <v>0.00336371484092871</v>
+        <v>0.006111149044445961</v>
       </c>
       <c r="J17">
-        <v>-0.02628792403681315</v>
+        <v>-0.008606307467496398</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.01004788751197188</v>
+        <v>0.01534803565392142</v>
       </c>
       <c r="E18">
-        <v>-0.01224278106069526</v>
+        <v>-0.01649790325191613</v>
       </c>
       <c r="F18">
-        <v>-0.0104795336198834</v>
+        <v>0.002096919635876785</v>
       </c>
       <c r="H18">
-        <v>0.01244686811171703</v>
+        <v>0.001543278781731151</v>
       </c>
       <c r="I18">
-        <v>0.01021040955260239</v>
+        <v>-0.0001069800042792002</v>
       </c>
       <c r="J18">
-        <v>-0.003828081818256758</v>
+        <v>-0.01306334117932358</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.0336551844137961</v>
+        <v>0.006270469210818768</v>
       </c>
       <c r="E19">
-        <v>-0.01295161073790268</v>
+        <v>0.01322596968103879</v>
       </c>
       <c r="F19">
-        <v>0.006333714083428521</v>
+        <v>-0.002755475534219021</v>
       </c>
       <c r="H19">
-        <v>-0.003346568336642084</v>
+        <v>-0.0003581276303251052</v>
       </c>
       <c r="I19">
-        <v>-0.006414003103500775</v>
+        <v>0.002195564631822585</v>
       </c>
       <c r="J19">
-        <v>0.03220011327319806</v>
+        <v>0.006982773373374972</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1034,22 +1039,22 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.003300930825232706</v>
+        <v>-0.02002485056099402</v>
       </c>
       <c r="E20">
-        <v>-0.01389886247471562</v>
+        <v>0.01053898813355952</v>
       </c>
       <c r="F20">
-        <v>0.03183355545838886</v>
+        <v>0.002179281399171255</v>
       </c>
       <c r="H20">
-        <v>-0.02944857586214396</v>
+        <v>-0.004800714144028564</v>
       </c>
       <c r="I20">
-        <v>-0.03152527688131922</v>
+        <v>-0.002348462397938495</v>
       </c>
       <c r="J20">
-        <v>-0.004493358190951576</v>
+        <v>0.01115896523051009</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1058,304 +1063,328 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.01011415452853863</v>
+        <v>-0.02292948984517959</v>
       </c>
       <c r="E21">
-        <v>-0.03498953824738456</v>
+        <v>-0.002350357150014286</v>
       </c>
       <c r="F21">
-        <v>0.03531175182793796</v>
+        <v>-0.004178701607148064</v>
       </c>
       <c r="H21">
-        <v>-0.02887250221812555</v>
+        <v>0.005052815914112637</v>
       </c>
       <c r="I21">
-        <v>-0.0364499056124764</v>
+        <v>0.003811498328459933</v>
       </c>
       <c r="J21">
-        <v>-0.02769417199215836</v>
+        <v>-0.002754153498506665</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22">
-        <v>-0.01463702915925729</v>
+        <v>-0.02151011452440458</v>
       </c>
       <c r="E22">
-        <v>0.02576221844055461</v>
+        <v>-0.0009326277493051098</v>
       </c>
       <c r="F22">
-        <v>-0.006408082602020649</v>
+        <v>0.01030911065236442</v>
       </c>
       <c r="H22">
-        <v>-0.001984263496065874</v>
+        <v>-0.01104080376963215</v>
       </c>
       <c r="I22">
-        <v>0.003379823344955836</v>
+        <v>-0.01083848654553946</v>
       </c>
       <c r="J22">
-        <v>0.008614099880012115</v>
+        <v>-0.02460973952431208</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.02790892447723111</v>
+        <v>-0.004674688986987559</v>
       </c>
       <c r="E23">
-        <v>-0.03154759988689997</v>
+        <v>0.007889359899574396</v>
       </c>
       <c r="F23">
-        <v>0.02593922748480687</v>
+        <v>0.01273337897333516</v>
       </c>
       <c r="H23">
-        <v>-0.02111037527759382</v>
+        <v>-0.01408196235527849</v>
       </c>
       <c r="I23">
-        <v>-0.02689557072389268</v>
+        <v>-0.01244677700987108</v>
       </c>
       <c r="J23">
-        <v>-0.00427715543647094</v>
+        <v>0.009888542679378488</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.005070901267725318</v>
+        <v>-0.01038395897535836</v>
       </c>
       <c r="E24">
-        <v>0.04308569877142469</v>
+        <v>0.01226883879475355</v>
       </c>
       <c r="F24">
-        <v>0.02083814470953618</v>
+        <v>-0.01258530482341219</v>
       </c>
       <c r="H24">
-        <v>-0.03380847695211923</v>
+        <v>0.0102692400267696</v>
       </c>
       <c r="I24">
-        <v>-0.02417199454299863</v>
+        <v>0.0122876524915061</v>
       </c>
       <c r="J24">
-        <v>-0.006887121621730142</v>
+        <v>0.003935184972111492</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-0.01991460047865012</v>
+        <v>0.003998167551926701</v>
       </c>
       <c r="E25">
-        <v>-0.01839982659995665</v>
+        <v>0.01236821953472878</v>
       </c>
       <c r="F25">
-        <v>0.008701251675312919</v>
+        <v>-0.01979377528775101</v>
       </c>
       <c r="H25">
-        <v>-0.004792757698189424</v>
+        <v>0.017057774986311</v>
       </c>
       <c r="I25">
-        <v>-0.009120605280151319</v>
+        <v>0.01928701613148064</v>
       </c>
       <c r="J25">
-        <v>0.007635450292369186</v>
+        <v>0.0013113244937407</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.02057385664346416</v>
+        <v>0.02151790482871619</v>
       </c>
       <c r="E26">
-        <v>0.02042764860691215</v>
+        <v>-0.003203021024120841</v>
       </c>
       <c r="F26">
-        <v>-9.750902437725609E-05</v>
+        <v>-0.01228331684333267</v>
       </c>
       <c r="H26">
-        <v>-0.003673760418440104</v>
+        <v>0.01383635229745409</v>
       </c>
       <c r="I26">
-        <v>0.0003313155828288957</v>
+        <v>0.0122017175120687</v>
       </c>
       <c r="J26">
-        <v>0.01305354287406702</v>
+        <v>-0.001291862471058742</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.0006671281667820416</v>
+        <v>0.02354697329387893</v>
       </c>
       <c r="E27">
-        <v>-0.03036725409181352</v>
+        <v>0.009473349018933959</v>
       </c>
       <c r="F27">
-        <v>0.02631006057751514</v>
+        <v>0.02170368019614721</v>
       </c>
       <c r="H27">
-        <v>-0.01791601497900374</v>
+        <v>-0.0256774725790989</v>
       </c>
       <c r="I27">
-        <v>-0.02435210708802677</v>
+        <v>-0.02272702074908083</v>
       </c>
       <c r="J27">
-        <v>0.01691403161025519</v>
+        <v>-0.03550853771090379</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>0.05991713247928312</v>
+        <v>-0.01384965914598636</v>
       </c>
       <c r="E28">
-        <v>0.01850428062607016</v>
+        <v>-0.01217433850297354</v>
       </c>
       <c r="F28">
-        <v>0.004135015033753758</v>
+        <v>-0.008612261816490472</v>
       </c>
       <c r="H28">
-        <v>-0.01047546411886603</v>
+        <v>0.01173167461326699</v>
       </c>
       <c r="I28">
-        <v>-0.005935952983988245</v>
+        <v>0.009357163574286542</v>
       </c>
       <c r="J28">
-        <v>0.04353265904163014</v>
+        <v>0.002965501197446981</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.01333349433337358</v>
+        <v>0.01059481789579271</v>
       </c>
       <c r="E29">
-        <v>0.008584064146016037</v>
+        <v>-0.003751166454046658</v>
       </c>
       <c r="F29">
-        <v>-0.002574990643747661</v>
+        <v>0.006936809461472377</v>
       </c>
       <c r="H29">
-        <v>-0.001348210837052709</v>
+        <v>-0.006350725886029035</v>
       </c>
       <c r="I29">
-        <v>0.002337033584258396</v>
+        <v>-0.007644891473795657</v>
       </c>
       <c r="J29">
-        <v>-0.04091344188684006</v>
+        <v>-0.03673525785176877</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C30">
-        <v>-0.03486313171578292</v>
+        <v>0.003452646282105851</v>
       </c>
       <c r="E30">
-        <v>0.01191809547952387</v>
+        <v>0.005229708881188355</v>
       </c>
       <c r="F30">
-        <v>0.02331590832897708</v>
+        <v>-0.003307177380287094</v>
       </c>
       <c r="H30">
-        <v>-0.02810070252517563</v>
+        <v>0.002112123348484933</v>
       </c>
       <c r="I30">
-        <v>-0.02634610408652602</v>
+        <v>0.002834183729367349</v>
       </c>
       <c r="J30">
-        <v>0.01157654872224537</v>
+        <v>-0.01316108518289129</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>-0.003797018449254612</v>
+        <v>-0.007525061389002454</v>
       </c>
       <c r="E31">
-        <v>0.02082699970674992</v>
+        <v>-0.01688516237140649</v>
       </c>
       <c r="F31">
-        <v>-0.008606390151597537</v>
+        <v>-0.01622244228089769</v>
       </c>
       <c r="H31">
-        <v>0.003448298362074591</v>
+        <v>0.02101375111255004</v>
       </c>
       <c r="I31">
-        <v>0.007047027261756816</v>
+        <v>0.01635504967820198</v>
       </c>
       <c r="J31">
-        <v>0.00473658572675729</v>
+        <v>-0.01136689547392798</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C32">
-        <v>-0.03002925450731363</v>
+        <v>0.009147824237912968</v>
       </c>
       <c r="E32">
-        <v>0.001495426873856718</v>
+        <v>0.006363108158524325</v>
       </c>
       <c r="F32">
-        <v>-0.009351651837912959</v>
+        <v>-0.003765536790621471</v>
       </c>
       <c r="H32">
-        <v>0.009646572911643227</v>
+        <v>0.002408678880347155</v>
       </c>
       <c r="I32">
-        <v>0.009839577959894491</v>
+        <v>0.0032590325143613</v>
       </c>
       <c r="J32">
-        <v>0.03250429481970205</v>
+        <v>-0.0001778305850759399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>0.005768133158725326</v>
+      </c>
+      <c r="E33">
+        <v>0.009229193457167738</v>
+      </c>
+      <c r="F33">
+        <v>0.00519766926390677</v>
+      </c>
+      <c r="H33">
+        <v>-0.007617297616691904</v>
+      </c>
+      <c r="I33">
+        <v>-0.005349035637961424</v>
+      </c>
+      <c r="J33">
+        <v>-0.001356563368103236</v>
       </c>
     </row>
   </sheetData>
@@ -1363,10 +1392,10 @@
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
